--- a/raw_data/20200818_saline/20200818_Sensor0_Test_51.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_51.xlsx
@@ -1,750 +1,1166 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A33A2A-0DB6-4246-ACF3-FB3DDB1E8695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>45002.900335</v>
+        <v>45002.900334999998</v>
       </c>
       <c r="B2" s="1">
-        <v>12.500806</v>
+        <v>12.500806000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>908.681000</v>
+        <v>908.68100000000004</v>
       </c>
       <c r="D2" s="1">
-        <v>-174.840000</v>
+        <v>-174.84</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>45012.998918</v>
+        <v>45012.998917999998</v>
       </c>
       <c r="G2" s="1">
-        <v>12.503611</v>
+        <v>12.503610999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>922.247000</v>
+        <v>922.24699999999996</v>
       </c>
       <c r="I2" s="1">
-        <v>-150.179000</v>
+        <v>-150.179</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>45023.420063</v>
+        <v>45023.420062999998</v>
       </c>
       <c r="L2" s="1">
         <v>12.506506</v>
       </c>
       <c r="M2" s="1">
-        <v>942.960000</v>
+        <v>942.96</v>
       </c>
       <c r="N2" s="1">
-        <v>-111.237000</v>
+        <v>-111.23699999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>45033.926581</v>
       </c>
       <c r="Q2" s="1">
-        <v>12.509424</v>
+        <v>12.509423999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>949.919000</v>
+        <v>949.91899999999998</v>
       </c>
       <c r="S2" s="1">
-        <v>-98.487200</v>
+        <v>-98.487200000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>45044.745320</v>
+        <v>45044.745320000002</v>
       </c>
       <c r="V2" s="1">
-        <v>12.512429</v>
+        <v>12.512428999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>956.997000</v>
+        <v>956.99699999999996</v>
       </c>
       <c r="X2" s="1">
-        <v>-87.117200</v>
+        <v>-87.117199999999997</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>45055.477753</v>
+        <v>45055.477752999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>12.515410</v>
+        <v>12.515409999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>965.238000</v>
+        <v>965.23800000000006</v>
       </c>
       <c r="AC2" s="1">
-        <v>-79.370900</v>
+        <v>-79.370900000000006</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>45066.024722</v>
+        <v>45066.024722000002</v>
       </c>
       <c r="AF2" s="1">
-        <v>12.518340</v>
+        <v>12.51834</v>
       </c>
       <c r="AG2" s="1">
-        <v>970.753000</v>
+        <v>970.75300000000004</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.572200</v>
+        <v>-79.572199999999995</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>45076.456077</v>
+        <v>45076.456077000003</v>
       </c>
       <c r="AK2" s="1">
         <v>12.521238</v>
       </c>
       <c r="AL2" s="1">
-        <v>979.279000</v>
+        <v>979.279</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.867700</v>
+        <v>-87.867699999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>45087.365065</v>
+        <v>45087.365064999998</v>
       </c>
       <c r="AP2" s="1">
-        <v>12.524268</v>
+        <v>12.524267999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>988.709000</v>
+        <v>988.70899999999995</v>
       </c>
       <c r="AR2" s="1">
-        <v>-103.092000</v>
+        <v>-103.092</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>45098.746626</v>
       </c>
       <c r="AU2" s="1">
-        <v>12.527430</v>
+        <v>12.527430000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1000.260000</v>
+        <v>1000.26</v>
       </c>
       <c r="AW2" s="1">
-        <v>-124.949000</v>
+        <v>-124.949</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>45109.866561</v>
+        <v>45109.866561000003</v>
       </c>
       <c r="AZ2" s="1">
-        <v>12.530518</v>
+        <v>12.530518000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1009.990000</v>
+        <v>1009.99</v>
       </c>
       <c r="BB2" s="1">
-        <v>-143.893000</v>
+        <v>-143.893</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>45121.259171</v>
+        <v>45121.259170999998</v>
       </c>
       <c r="BE2" s="1">
         <v>12.533683</v>
       </c>
       <c r="BF2" s="1">
-        <v>1055.540000</v>
+        <v>1055.54</v>
       </c>
       <c r="BG2" s="1">
-        <v>-229.594000</v>
+        <v>-229.59399999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>45131.920708</v>
+        <v>45131.920707999998</v>
       </c>
       <c r="BJ2" s="1">
         <v>12.536645</v>
       </c>
       <c r="BK2" s="1">
-        <v>1135.180000</v>
+        <v>1135.18</v>
       </c>
       <c r="BL2" s="1">
-        <v>-367.283000</v>
+        <v>-367.28300000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>45143.093557</v>
       </c>
       <c r="BO2" s="1">
-        <v>12.539748</v>
+        <v>12.539747999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1266.960000</v>
+        <v>1266.96</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-580.758000</v>
+        <v>-580.75800000000004</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>45153.830951</v>
+        <v>45153.830951000004</v>
       </c>
       <c r="BT2" s="1">
         <v>12.542731</v>
       </c>
       <c r="BU2" s="1">
-        <v>1415.690000</v>
+        <v>1415.69</v>
       </c>
       <c r="BV2" s="1">
-        <v>-809.825000</v>
+        <v>-809.82500000000005</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>45165.304409</v>
+        <v>45165.304408999997</v>
       </c>
       <c r="BY2" s="1">
         <v>12.545918</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1578.760000</v>
+        <v>1578.76</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1048.900000</v>
+        <v>-1048.9000000000001</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>45176.179689</v>
+        <v>45176.179688999997</v>
       </c>
       <c r="CD2" s="1">
-        <v>12.548939</v>
+        <v>12.548939000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1993.650000</v>
+        <v>1993.65</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1608.970000</v>
+        <v>-1608.97</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>45003.304110</v>
+        <v>45003.304109999997</v>
       </c>
       <c r="B3" s="1">
         <v>12.500918</v>
       </c>
       <c r="C3" s="1">
-        <v>908.494000</v>
+        <v>908.49400000000003</v>
       </c>
       <c r="D3" s="1">
-        <v>-174.844000</v>
+        <v>-174.84399999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>45013.330704</v>
@@ -753,43 +1169,43 @@
         <v>12.503703</v>
       </c>
       <c r="H3" s="1">
-        <v>922.634000</v>
+        <v>922.63400000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-150.242000</v>
+        <v>-150.24199999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>45023.803404</v>
+        <v>45023.803403999998</v>
       </c>
       <c r="L3" s="1">
-        <v>12.506612</v>
+        <v>12.506612000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>942.875000</v>
+        <v>942.875</v>
       </c>
       <c r="N3" s="1">
-        <v>-111.197000</v>
+        <v>-111.197</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>45034.658180</v>
+        <v>45034.658179999999</v>
       </c>
       <c r="Q3" s="1">
         <v>12.509627</v>
       </c>
       <c r="R3" s="1">
-        <v>949.905000</v>
+        <v>949.90499999999997</v>
       </c>
       <c r="S3" s="1">
-        <v>-98.492400</v>
+        <v>-98.492400000000004</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>45045.450631</v>
@@ -798,28 +1214,28 @@
         <v>12.512625</v>
       </c>
       <c r="W3" s="1">
-        <v>957.075000</v>
+        <v>957.07500000000005</v>
       </c>
       <c r="X3" s="1">
-        <v>-87.073300</v>
+        <v>-87.073300000000003</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>45055.828953</v>
+        <v>45055.828952999997</v>
       </c>
       <c r="AA3" s="1">
-        <v>12.515508</v>
+        <v>12.515508000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>965.273000</v>
+        <v>965.27300000000002</v>
       </c>
       <c r="AC3" s="1">
-        <v>-79.298900</v>
+        <v>-79.298900000000003</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>45066.378331</v>
@@ -828,118 +1244,118 @@
         <v>12.518438</v>
       </c>
       <c r="AG3" s="1">
-        <v>970.795000</v>
+        <v>970.79499999999996</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.582900</v>
+        <v>-79.582899999999995</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>45076.835486</v>
+        <v>45076.835486000004</v>
       </c>
       <c r="AK3" s="1">
         <v>12.521343</v>
       </c>
       <c r="AL3" s="1">
-        <v>979.252000</v>
+        <v>979.25199999999995</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.856900</v>
+        <v>-87.856899999999996</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>45088.077310</v>
+        <v>45088.077310000001</v>
       </c>
       <c r="AP3" s="1">
         <v>12.524466</v>
       </c>
       <c r="AQ3" s="1">
-        <v>988.711000</v>
+        <v>988.71100000000001</v>
       </c>
       <c r="AR3" s="1">
-        <v>-103.116000</v>
+        <v>-103.116</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>45099.209519</v>
+        <v>45099.209518999996</v>
       </c>
       <c r="AU3" s="1">
-        <v>12.527558</v>
+        <v>12.527558000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1000.290000</v>
+        <v>1000.29</v>
       </c>
       <c r="AW3" s="1">
-        <v>-124.955000</v>
+        <v>-124.955</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>45110.279730</v>
+        <v>45110.279730000002</v>
       </c>
       <c r="AZ3" s="1">
         <v>12.530633</v>
       </c>
       <c r="BA3" s="1">
-        <v>1010.000000</v>
+        <v>1010</v>
       </c>
       <c r="BB3" s="1">
-        <v>-143.914000</v>
+        <v>-143.91399999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>45121.626209</v>
+        <v>45121.626209000002</v>
       </c>
       <c r="BE3" s="1">
         <v>12.533785</v>
       </c>
       <c r="BF3" s="1">
-        <v>1055.550000</v>
+        <v>1055.55</v>
       </c>
       <c r="BG3" s="1">
-        <v>-229.592000</v>
+        <v>-229.59200000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>45132.318964</v>
+        <v>45132.318963999998</v>
       </c>
       <c r="BJ3" s="1">
-        <v>12.536755</v>
+        <v>12.536754999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1135.200000</v>
+        <v>1135.2</v>
       </c>
       <c r="BL3" s="1">
-        <v>-367.300000</v>
+        <v>-367.3</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>45143.506228</v>
+        <v>45143.506227999998</v>
       </c>
       <c r="BO3" s="1">
         <v>12.539863</v>
       </c>
       <c r="BP3" s="1">
-        <v>1266.960000</v>
+        <v>1266.96</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-580.820000</v>
+        <v>-580.82000000000005</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>45154.274909</v>
@@ -948,46 +1364,46 @@
         <v>12.542854</v>
       </c>
       <c r="BU3" s="1">
-        <v>1415.660000</v>
+        <v>1415.66</v>
       </c>
       <c r="BV3" s="1">
-        <v>-809.961000</v>
+        <v>-809.96100000000001</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>45165.468088</v>
+        <v>45165.468088000001</v>
       </c>
       <c r="BY3" s="1">
         <v>12.545963</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1578.870000</v>
+        <v>1578.87</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1048.920000</v>
+        <v>-1048.92</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>45176.431162</v>
+        <v>45176.431162000001</v>
       </c>
       <c r="CD3" s="1">
         <v>12.549009</v>
       </c>
       <c r="CE3" s="1">
-        <v>1994.060000</v>
+        <v>1994.06</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1608.850000</v>
+        <v>-1608.85</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>45003.647309</v>
       </c>
@@ -995,465 +1411,465 @@
         <v>12.501013</v>
       </c>
       <c r="C4" s="1">
-        <v>908.447000</v>
+        <v>908.447</v>
       </c>
       <c r="D4" s="1">
-        <v>-174.831000</v>
+        <v>-174.83099999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>45014.019648</v>
+        <v>45014.019648000001</v>
       </c>
       <c r="G4" s="1">
-        <v>12.503894</v>
+        <v>12.503894000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>922.291000</v>
+        <v>922.29100000000005</v>
       </c>
       <c r="I4" s="1">
-        <v>-149.923000</v>
+        <v>-149.923</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>45024.492708</v>
+        <v>45024.492707999998</v>
       </c>
       <c r="L4" s="1">
-        <v>12.506804</v>
+        <v>12.506804000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>943.088000</v>
+        <v>943.08799999999997</v>
       </c>
       <c r="N4" s="1">
-        <v>-111.192000</v>
+        <v>-111.19199999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>45035.006868</v>
+        <v>45035.006867999997</v>
       </c>
       <c r="Q4" s="1">
         <v>12.509724</v>
       </c>
       <c r="R4" s="1">
-        <v>949.927000</v>
+        <v>949.92700000000002</v>
       </c>
       <c r="S4" s="1">
-        <v>-98.541900</v>
+        <v>-98.541899999999998</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>45045.795846</v>
+        <v>45045.795846000001</v>
       </c>
       <c r="V4" s="1">
-        <v>12.512721</v>
+        <v>12.512721000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>957.144000</v>
+        <v>957.14400000000001</v>
       </c>
       <c r="X4" s="1">
-        <v>-86.990300</v>
+        <v>-86.990300000000005</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>45056.177642</v>
+        <v>45056.177642000002</v>
       </c>
       <c r="AA4" s="1">
-        <v>12.515605</v>
+        <v>12.515605000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>965.280000</v>
+        <v>965.28</v>
       </c>
       <c r="AC4" s="1">
-        <v>-79.304400</v>
+        <v>-79.304400000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>45067.032910</v>
+        <v>45067.032910000002</v>
       </c>
       <c r="AF4" s="1">
-        <v>12.518620</v>
+        <v>12.51862</v>
       </c>
       <c r="AG4" s="1">
-        <v>970.808000</v>
+        <v>970.80799999999999</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.641800</v>
+        <v>-79.641800000000003</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>45077.509549</v>
+        <v>45077.509549000002</v>
       </c>
       <c r="AK4" s="1">
-        <v>12.521530</v>
+        <v>12.52153</v>
       </c>
       <c r="AL4" s="1">
-        <v>979.233000</v>
+        <v>979.23299999999995</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.859000</v>
+        <v>-87.858999999999995</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>45088.488495</v>
+        <v>45088.488494999998</v>
       </c>
       <c r="AP4" s="1">
-        <v>12.524580</v>
+        <v>12.52458</v>
       </c>
       <c r="AQ4" s="1">
-        <v>988.707000</v>
+        <v>988.70699999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-103.114000</v>
+        <v>-103.114</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>45099.591468</v>
+        <v>45099.591467999999</v>
       </c>
       <c r="AU4" s="1">
         <v>12.527664</v>
       </c>
       <c r="AV4" s="1">
-        <v>1000.290000</v>
+        <v>1000.29</v>
       </c>
       <c r="AW4" s="1">
-        <v>-124.960000</v>
+        <v>-124.96</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>45110.648257</v>
+        <v>45110.648257000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>12.530736</v>
+        <v>12.530735999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1010.000000</v>
+        <v>1010</v>
       </c>
       <c r="BB4" s="1">
-        <v>-143.887000</v>
+        <v>-143.887</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>45121.985314</v>
+        <v>45121.985313999998</v>
       </c>
       <c r="BE4" s="1">
         <v>12.533885</v>
       </c>
       <c r="BF4" s="1">
-        <v>1055.560000</v>
+        <v>1055.56</v>
       </c>
       <c r="BG4" s="1">
-        <v>-229.597000</v>
+        <v>-229.59700000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>45132.748531</v>
+        <v>45132.748530999997</v>
       </c>
       <c r="BJ4" s="1">
         <v>12.536875</v>
       </c>
       <c r="BK4" s="1">
-        <v>1135.190000</v>
+        <v>1135.19</v>
       </c>
       <c r="BL4" s="1">
-        <v>-367.287000</v>
+        <v>-367.28699999999998</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>45144.313754</v>
+        <v>45144.313754000003</v>
       </c>
       <c r="BO4" s="1">
         <v>12.540087</v>
       </c>
       <c r="BP4" s="1">
-        <v>1266.980000</v>
+        <v>1266.98</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-580.797000</v>
+        <v>-580.79700000000003</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>45154.708870</v>
+        <v>45154.708870000002</v>
       </c>
       <c r="BT4" s="1">
         <v>12.542975</v>
       </c>
       <c r="BU4" s="1">
-        <v>1415.630000</v>
+        <v>1415.63</v>
       </c>
       <c r="BV4" s="1">
-        <v>-810.045000</v>
+        <v>-810.04499999999996</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>45165.890184</v>
+        <v>45165.890184000004</v>
       </c>
       <c r="BY4" s="1">
-        <v>12.546081</v>
+        <v>12.546080999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1578.730000</v>
+        <v>1578.73</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1048.990000</v>
+        <v>-1048.99</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>45176.952497</v>
+        <v>45176.952496999998</v>
       </c>
       <c r="CD4" s="1">
         <v>12.549153</v>
       </c>
       <c r="CE4" s="1">
-        <v>1992.420000</v>
+        <v>1992.42</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1608.210000</v>
+        <v>-1608.21</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>45004.328812</v>
       </c>
       <c r="B5" s="1">
-        <v>12.501202</v>
+        <v>12.501201999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>908.334000</v>
+        <v>908.33399999999995</v>
       </c>
       <c r="D5" s="1">
-        <v>-174.894000</v>
+        <v>-174.89400000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>45014.362921</v>
       </c>
       <c r="G5" s="1">
-        <v>12.503990</v>
+        <v>12.50399</v>
       </c>
       <c r="H5" s="1">
-        <v>922.190000</v>
+        <v>922.19</v>
       </c>
       <c r="I5" s="1">
-        <v>-149.725000</v>
+        <v>-149.72499999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>45024.841362</v>
+        <v>45024.841361999999</v>
       </c>
       <c r="L5" s="1">
-        <v>12.506900</v>
+        <v>12.5069</v>
       </c>
       <c r="M5" s="1">
-        <v>943.018000</v>
+        <v>943.01800000000003</v>
       </c>
       <c r="N5" s="1">
-        <v>-111.305000</v>
+        <v>-111.30500000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>45035.354099</v>
+        <v>45035.354098999996</v>
       </c>
       <c r="Q5" s="1">
-        <v>12.509821</v>
+        <v>12.509821000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>949.914000</v>
+        <v>949.91399999999999</v>
       </c>
       <c r="S5" s="1">
-        <v>-98.528000</v>
+        <v>-98.528000000000006</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>45046.454534</v>
+        <v>45046.454533999997</v>
       </c>
       <c r="V5" s="1">
-        <v>12.512904</v>
+        <v>12.512904000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>957.060000</v>
+        <v>957.06</v>
       </c>
       <c r="X5" s="1">
-        <v>-86.964100</v>
+        <v>-86.964100000000002</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>45056.852167</v>
+        <v>45056.852166999997</v>
       </c>
       <c r="AA5" s="1">
-        <v>12.515792</v>
+        <v>12.515791999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>965.252000</v>
+        <v>965.25199999999995</v>
       </c>
       <c r="AC5" s="1">
-        <v>-79.261900</v>
+        <v>-79.261899999999997</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>45067.410009</v>
+        <v>45067.410008999999</v>
       </c>
       <c r="AF5" s="1">
         <v>12.518725</v>
       </c>
       <c r="AG5" s="1">
-        <v>970.979000</v>
+        <v>970.97900000000004</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.567800</v>
+        <v>-79.567800000000005</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>45077.881052</v>
+        <v>45077.881051999997</v>
       </c>
       <c r="AK5" s="1">
-        <v>12.521634</v>
+        <v>12.521634000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>979.240000</v>
+        <v>979.24</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.848300</v>
+        <v>-87.848299999999995</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>45088.876861</v>
+        <v>45088.876860999997</v>
       </c>
       <c r="AP5" s="1">
-        <v>12.524688</v>
+        <v>12.524687999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>988.702000</v>
+        <v>988.702</v>
       </c>
       <c r="AR5" s="1">
-        <v>-103.103000</v>
+        <v>-103.10299999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>45099.956495</v>
+        <v>45099.956494999999</v>
       </c>
       <c r="AU5" s="1">
         <v>12.527766</v>
       </c>
       <c r="AV5" s="1">
-        <v>1000.280000</v>
+        <v>1000.28</v>
       </c>
       <c r="AW5" s="1">
-        <v>-124.971000</v>
+        <v>-124.971</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>45111.317855</v>
+        <v>45111.317855000001</v>
       </c>
       <c r="AZ5" s="1">
         <v>12.530922</v>
       </c>
       <c r="BA5" s="1">
-        <v>1010.000000</v>
+        <v>1010</v>
       </c>
       <c r="BB5" s="1">
-        <v>-143.909000</v>
+        <v>-143.90899999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>45122.408898</v>
+        <v>45122.408898000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>12.534002</v>
+        <v>12.534001999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1055.520000</v>
+        <v>1055.52</v>
       </c>
       <c r="BG5" s="1">
-        <v>-229.603000</v>
+        <v>-229.60300000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>45133.071396</v>
+        <v>45133.071395999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>12.536964</v>
+        <v>12.536963999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1135.200000</v>
+        <v>1135.2</v>
       </c>
       <c r="BL5" s="1">
-        <v>-367.280000</v>
+        <v>-367.28</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>45144.727911</v>
+        <v>45144.727911000002</v>
       </c>
       <c r="BO5" s="1">
-        <v>12.540202</v>
+        <v>12.540202000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1266.980000</v>
+        <v>1266.98</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-580.824000</v>
+        <v>-580.82399999999996</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>45155.139894</v>
@@ -1462,270 +1878,270 @@
         <v>12.543094</v>
       </c>
       <c r="BU5" s="1">
-        <v>1415.530000</v>
+        <v>1415.53</v>
       </c>
       <c r="BV5" s="1">
-        <v>-810.083000</v>
+        <v>-810.08299999999997</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>45166.309798</v>
+        <v>45166.309798000002</v>
       </c>
       <c r="BY5" s="1">
-        <v>12.546197</v>
+        <v>12.546196999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1578.680000</v>
+        <v>1578.68</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1049.070000</v>
+        <v>-1049.07</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>45177.468297</v>
+        <v>45177.468296999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>12.549297</v>
+        <v>12.549296999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>1992.120000</v>
+        <v>1992.12</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1610.010000</v>
+        <v>-1610.01</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>45004.673532</v>
+        <v>45004.673532000001</v>
       </c>
       <c r="B6" s="1">
         <v>12.501298</v>
       </c>
       <c r="C6" s="1">
-        <v>908.689000</v>
+        <v>908.68899999999996</v>
       </c>
       <c r="D6" s="1">
-        <v>-174.747000</v>
+        <v>-174.74700000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>45014.710607</v>
+        <v>45014.710607000001</v>
       </c>
       <c r="G6" s="1">
-        <v>12.504086</v>
+        <v>12.504085999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>922.517000</v>
+        <v>922.51700000000005</v>
       </c>
       <c r="I6" s="1">
-        <v>-149.946000</v>
+        <v>-149.946</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>45025.188592</v>
+        <v>45025.188591999999</v>
       </c>
       <c r="L6" s="1">
         <v>12.506997</v>
       </c>
       <c r="M6" s="1">
-        <v>943.053000</v>
+        <v>943.053</v>
       </c>
       <c r="N6" s="1">
-        <v>-111.145000</v>
+        <v>-111.145</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>45036.018917</v>
+        <v>45036.018917000001</v>
       </c>
       <c r="Q6" s="1">
         <v>12.510005</v>
       </c>
       <c r="R6" s="1">
-        <v>949.871000</v>
+        <v>949.87099999999998</v>
       </c>
       <c r="S6" s="1">
-        <v>-98.489000</v>
+        <v>-98.489000000000004</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>45046.821572</v>
+        <v>45046.821572000001</v>
       </c>
       <c r="V6" s="1">
-        <v>12.513006</v>
+        <v>12.513006000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>957.118000</v>
+        <v>957.11800000000005</v>
       </c>
       <c r="X6" s="1">
-        <v>-87.120300</v>
+        <v>-87.1203</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>45057.221687</v>
+        <v>45057.221686999997</v>
       </c>
       <c r="AA6" s="1">
         <v>12.515895</v>
       </c>
       <c r="AB6" s="1">
-        <v>965.334000</v>
+        <v>965.33399999999995</v>
       </c>
       <c r="AC6" s="1">
-        <v>-79.349500</v>
+        <v>-79.349500000000006</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>45067.753241</v>
+        <v>45067.753240999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>12.518820</v>
+        <v>12.51882</v>
       </c>
       <c r="AG6" s="1">
-        <v>970.843000</v>
+        <v>970.84299999999996</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.583100</v>
+        <v>-79.583100000000002</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>45078.243627</v>
+        <v>45078.243627000003</v>
       </c>
       <c r="AK6" s="1">
         <v>12.521734</v>
       </c>
       <c r="AL6" s="1">
-        <v>979.251000</v>
+        <v>979.25099999999998</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.857800</v>
+        <v>-87.857799999999997</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>45089.264238</v>
+        <v>45089.264238000003</v>
       </c>
       <c r="AP6" s="1">
         <v>12.524796</v>
       </c>
       <c r="AQ6" s="1">
-        <v>988.697000</v>
+        <v>988.697</v>
       </c>
       <c r="AR6" s="1">
-        <v>-103.115000</v>
+        <v>-103.11499999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>45100.379825</v>
+        <v>45100.379825000004</v>
       </c>
       <c r="AU6" s="1">
-        <v>12.527883</v>
+        <v>12.527882999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1000.300000</v>
+        <v>1000.3</v>
       </c>
       <c r="AW6" s="1">
-        <v>-124.961000</v>
+        <v>-124.961</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>45111.715646</v>
+        <v>45111.715645999997</v>
       </c>
       <c r="AZ6" s="1">
         <v>12.531032</v>
       </c>
       <c r="BA6" s="1">
-        <v>1009.970000</v>
+        <v>1009.97</v>
       </c>
       <c r="BB6" s="1">
-        <v>-143.908000</v>
+        <v>-143.90799999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>45122.709504</v>
+        <v>45122.709503999999</v>
       </c>
       <c r="BE6" s="1">
         <v>12.534086</v>
       </c>
       <c r="BF6" s="1">
-        <v>1055.530000</v>
+        <v>1055.53</v>
       </c>
       <c r="BG6" s="1">
-        <v>-229.596000</v>
+        <v>-229.596</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>45133.446385</v>
+        <v>45133.446385000003</v>
       </c>
       <c r="BJ6" s="1">
         <v>12.537068</v>
       </c>
       <c r="BK6" s="1">
-        <v>1135.150000</v>
+        <v>1135.1500000000001</v>
       </c>
       <c r="BL6" s="1">
-        <v>-367.290000</v>
+        <v>-367.29</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>45145.125970</v>
+        <v>45145.125970000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>12.540313</v>
+        <v>12.540312999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1266.980000</v>
+        <v>1266.98</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-580.869000</v>
+        <v>-580.86900000000003</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>45155.550617</v>
+        <v>45155.550617000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>12.543209</v>
+        <v>12.543208999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1415.430000</v>
+        <v>1415.43</v>
       </c>
       <c r="BV6" s="1">
-        <v>-810.049000</v>
+        <v>-810.04899999999998</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>45166.735365</v>
@@ -1734,317 +2150,317 @@
         <v>12.546315</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1578.740000</v>
+        <v>1578.74</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1049.060000</v>
+        <v>-1049.06</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>45177.989599</v>
       </c>
       <c r="CD6" s="1">
-        <v>12.549442</v>
+        <v>12.549442000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>1994.000000</v>
+        <v>1994</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1610.230000</v>
+        <v>-1610.23</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>45005.011804</v>
+        <v>45005.011804000002</v>
       </c>
       <c r="B7" s="1">
-        <v>12.501392</v>
+        <v>12.501391999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>908.433000</v>
+        <v>908.43299999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-174.802000</v>
+        <v>-174.80199999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>45015.359379</v>
+        <v>45015.359379000001</v>
       </c>
       <c r="G7" s="1">
-        <v>12.504266</v>
+        <v>12.504265999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>922.612000</v>
+        <v>922.61199999999997</v>
       </c>
       <c r="I7" s="1">
-        <v>-150.152000</v>
+        <v>-150.15199999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>45025.841296</v>
+        <v>45025.841295999999</v>
       </c>
       <c r="L7" s="1">
         <v>12.507178</v>
       </c>
       <c r="M7" s="1">
-        <v>943.093000</v>
+        <v>943.09299999999996</v>
       </c>
       <c r="N7" s="1">
-        <v>-111.301000</v>
+        <v>-111.301</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>45036.404099</v>
+        <v>45036.404098999999</v>
       </c>
       <c r="Q7" s="1">
-        <v>12.510112</v>
+        <v>12.510111999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>949.904000</v>
+        <v>949.904</v>
       </c>
       <c r="S7" s="1">
-        <v>-98.465800</v>
+        <v>-98.465800000000002</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>45047.168066</v>
+        <v>45047.168065999998</v>
       </c>
       <c r="V7" s="1">
         <v>12.513102</v>
       </c>
       <c r="W7" s="1">
-        <v>957.198000</v>
+        <v>957.19799999999998</v>
       </c>
       <c r="X7" s="1">
-        <v>-87.093300</v>
+        <v>-87.093299999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>45057.570870</v>
+        <v>45057.570870000003</v>
       </c>
       <c r="AA7" s="1">
-        <v>12.515992</v>
+        <v>12.515992000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>965.342000</v>
+        <v>965.34199999999998</v>
       </c>
       <c r="AC7" s="1">
-        <v>-79.374400</v>
+        <v>-79.374399999999994</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>45068.098488</v>
+        <v>45068.098488000003</v>
       </c>
       <c r="AF7" s="1">
-        <v>12.518916</v>
+        <v>12.518916000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>970.725000</v>
+        <v>970.72500000000002</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.626500</v>
+        <v>-79.626499999999993</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>45078.862635</v>
+        <v>45078.862634999998</v>
       </c>
       <c r="AK7" s="1">
         <v>12.521906</v>
       </c>
       <c r="AL7" s="1">
-        <v>979.276000</v>
+        <v>979.27599999999995</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.865800</v>
+        <v>-87.865799999999993</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>45089.679388</v>
+        <v>45089.679387999997</v>
       </c>
       <c r="AP7" s="1">
-        <v>12.524911</v>
+        <v>12.524910999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>988.724000</v>
+        <v>988.72400000000005</v>
       </c>
       <c r="AR7" s="1">
-        <v>-103.120000</v>
+        <v>-103.12</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>45100.685148</v>
+        <v>45100.685147999997</v>
       </c>
       <c r="AU7" s="1">
         <v>12.527968</v>
       </c>
       <c r="AV7" s="1">
-        <v>1000.290000</v>
+        <v>1000.29</v>
       </c>
       <c r="AW7" s="1">
-        <v>-124.954000</v>
+        <v>-124.95399999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>45112.101038</v>
+        <v>45112.101038000001</v>
       </c>
       <c r="AZ7" s="1">
         <v>12.531139</v>
       </c>
       <c r="BA7" s="1">
-        <v>1010.030000</v>
+        <v>1010.03</v>
       </c>
       <c r="BB7" s="1">
-        <v>-143.921000</v>
+        <v>-143.92099999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>45123.067617</v>
+        <v>45123.067617000001</v>
       </c>
       <c r="BE7" s="1">
-        <v>12.534185</v>
+        <v>12.534185000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1055.550000</v>
+        <v>1055.55</v>
       </c>
       <c r="BG7" s="1">
-        <v>-229.568000</v>
+        <v>-229.56800000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>45133.849653</v>
+        <v>45133.849652999997</v>
       </c>
       <c r="BJ7" s="1">
-        <v>12.537180</v>
+        <v>12.537179999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1135.170000</v>
+        <v>1135.17</v>
       </c>
       <c r="BL7" s="1">
-        <v>-367.290000</v>
+        <v>-367.29</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>45145.546811</v>
       </c>
       <c r="BO7" s="1">
-        <v>12.540430</v>
+        <v>12.540430000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1266.960000</v>
+        <v>1266.96</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-580.805000</v>
+        <v>-580.80499999999995</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>45155.982596</v>
+        <v>45155.982596000002</v>
       </c>
       <c r="BT7" s="1">
-        <v>12.543328</v>
+        <v>12.543328000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1415.450000</v>
+        <v>1415.45</v>
       </c>
       <c r="BV7" s="1">
-        <v>-810.157000</v>
+        <v>-810.15700000000004</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>45167.155015</v>
+        <v>45167.155014999997</v>
       </c>
       <c r="BY7" s="1">
-        <v>12.546432</v>
+        <v>12.546431999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1578.650000</v>
+        <v>1578.65</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1048.960000</v>
+        <v>-1048.96</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>45178.506918</v>
+        <v>45178.506917999999</v>
       </c>
       <c r="CD7" s="1">
         <v>12.549585</v>
       </c>
       <c r="CE7" s="1">
-        <v>1992.850000</v>
+        <v>1992.85</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1610.440000</v>
+        <v>-1610.44</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>45005.661589</v>
+        <v>45005.661589000003</v>
       </c>
       <c r="B8" s="1">
         <v>12.501573</v>
       </c>
       <c r="C8" s="1">
-        <v>908.466000</v>
+        <v>908.46600000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-174.747000</v>
+        <v>-174.74700000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>45015.740765</v>
+        <v>45015.740765000002</v>
       </c>
       <c r="G8" s="1">
         <v>12.504372</v>
       </c>
       <c r="H8" s="1">
-        <v>922.261000</v>
+        <v>922.26099999999997</v>
       </c>
       <c r="I8" s="1">
-        <v>-150.084000</v>
+        <v>-150.084</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>45026.224703</v>
@@ -2053,13 +2469,13 @@
         <v>12.507285</v>
       </c>
       <c r="M8" s="1">
-        <v>943.077000</v>
+        <v>943.077</v>
       </c>
       <c r="N8" s="1">
-        <v>-111.298000</v>
+        <v>-111.298</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>45036.748819</v>
@@ -2068,450 +2484,450 @@
         <v>12.510208</v>
       </c>
       <c r="R8" s="1">
-        <v>949.912000</v>
+        <v>949.91200000000003</v>
       </c>
       <c r="S8" s="1">
-        <v>-98.492600</v>
+        <v>-98.492599999999996</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>45047.511011</v>
+        <v>45047.511011000002</v>
       </c>
       <c r="V8" s="1">
-        <v>12.513198</v>
+        <v>12.513197999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>957.170000</v>
+        <v>957.17</v>
       </c>
       <c r="X8" s="1">
-        <v>-86.998700</v>
+        <v>-86.998699999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>45057.920054</v>
+        <v>45057.920054000002</v>
       </c>
       <c r="AA8" s="1">
-        <v>12.516089</v>
+        <v>12.516088999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>965.354000</v>
+        <v>965.35400000000004</v>
       </c>
       <c r="AC8" s="1">
-        <v>-79.312500</v>
+        <v>-79.3125</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>45068.520055</v>
+        <v>45068.520055000001</v>
       </c>
       <c r="AF8" s="1">
         <v>12.519033</v>
       </c>
       <c r="AG8" s="1">
-        <v>970.777000</v>
+        <v>970.77700000000004</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.528700</v>
+        <v>-79.528700000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>45079.273354</v>
+        <v>45079.273353999997</v>
       </c>
       <c r="AK8" s="1">
-        <v>12.522020</v>
+        <v>12.522019999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>979.254000</v>
+        <v>979.25400000000002</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.862300</v>
+        <v>-87.862300000000005</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>45089.985419</v>
+        <v>45089.985418999997</v>
       </c>
       <c r="AP8" s="1">
         <v>12.524996</v>
       </c>
       <c r="AQ8" s="1">
-        <v>988.714000</v>
+        <v>988.71400000000006</v>
       </c>
       <c r="AR8" s="1">
-        <v>-103.110000</v>
+        <v>-103.11</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>45101.051166</v>
+        <v>45101.051165999997</v>
       </c>
       <c r="AU8" s="1">
-        <v>12.528070</v>
+        <v>12.52807</v>
       </c>
       <c r="AV8" s="1">
-        <v>1000.270000</v>
+        <v>1000.27</v>
       </c>
       <c r="AW8" s="1">
-        <v>-124.949000</v>
+        <v>-124.949</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>45112.461631</v>
+        <v>45112.461630999998</v>
       </c>
       <c r="AZ8" s="1">
-        <v>12.531239</v>
+        <v>12.531238999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1010.010000</v>
+        <v>1010.01</v>
       </c>
       <c r="BB8" s="1">
-        <v>-143.899000</v>
+        <v>-143.899</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>45123.428671</v>
+        <v>45123.428671000001</v>
       </c>
       <c r="BE8" s="1">
         <v>12.534286</v>
       </c>
       <c r="BF8" s="1">
-        <v>1055.530000</v>
+        <v>1055.53</v>
       </c>
       <c r="BG8" s="1">
-        <v>-229.609000</v>
+        <v>-229.60900000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>45134.598081</v>
+        <v>45134.598080999996</v>
       </c>
       <c r="BJ8" s="1">
         <v>12.537388</v>
       </c>
       <c r="BK8" s="1">
-        <v>1135.180000</v>
+        <v>1135.18</v>
       </c>
       <c r="BL8" s="1">
-        <v>-367.285000</v>
+        <v>-367.28500000000003</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>45145.942432</v>
+        <v>45145.942432000003</v>
       </c>
       <c r="BO8" s="1">
-        <v>12.540540</v>
+        <v>12.54054</v>
       </c>
       <c r="BP8" s="1">
-        <v>1266.990000</v>
+        <v>1266.99</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-580.804000</v>
+        <v>-580.80399999999997</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>45156.410643</v>
+        <v>45156.410643000003</v>
       </c>
       <c r="BT8" s="1">
         <v>12.543447</v>
       </c>
       <c r="BU8" s="1">
-        <v>1415.370000</v>
+        <v>1415.37</v>
       </c>
       <c r="BV8" s="1">
-        <v>-810.075000</v>
+        <v>-810.07500000000005</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>45167.600911</v>
+        <v>45167.600911000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>12.546556</v>
+        <v>12.546556000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1578.820000</v>
+        <v>1578.82</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1049.010000</v>
+        <v>-1049.01</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>45179.368470</v>
+        <v>45179.368470000001</v>
       </c>
       <c r="CD8" s="1">
         <v>12.549825</v>
       </c>
       <c r="CE8" s="1">
-        <v>1991.980000</v>
+        <v>1991.98</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1610.000000</v>
+        <v>-1610</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>45006.038384</v>
+        <v>45006.038383999999</v>
       </c>
       <c r="B9" s="1">
-        <v>12.501677</v>
+        <v>12.501677000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>908.613000</v>
+        <v>908.61300000000006</v>
       </c>
       <c r="D9" s="1">
-        <v>-174.984000</v>
+        <v>-174.98400000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>45016.085982</v>
+        <v>45016.085981999997</v>
       </c>
       <c r="G9" s="1">
-        <v>12.504468</v>
+        <v>12.504467999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>922.308000</v>
+        <v>922.30799999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-150.283000</v>
+        <v>-150.28299999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>45026.568928</v>
+        <v>45026.568928000001</v>
       </c>
       <c r="L9" s="1">
-        <v>12.507380</v>
+        <v>12.507379999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>942.931000</v>
+        <v>942.93100000000004</v>
       </c>
       <c r="N9" s="1">
-        <v>-111.136000</v>
+        <v>-111.136</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>45037.097041</v>
+        <v>45037.097041000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>12.510305</v>
+        <v>12.510305000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>949.897000</v>
+        <v>949.89700000000005</v>
       </c>
       <c r="S9" s="1">
-        <v>-98.485800</v>
+        <v>-98.485799999999998</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>45047.939556</v>
+        <v>45047.939555999998</v>
       </c>
       <c r="V9" s="1">
-        <v>12.513317</v>
+        <v>12.513317000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>957.139000</v>
+        <v>957.13900000000001</v>
       </c>
       <c r="X9" s="1">
-        <v>-87.082300</v>
+        <v>-87.082300000000004</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>45058.352565</v>
+        <v>45058.352565000001</v>
       </c>
       <c r="AA9" s="1">
         <v>12.516209</v>
       </c>
       <c r="AB9" s="1">
-        <v>965.320000</v>
+        <v>965.32</v>
       </c>
       <c r="AC9" s="1">
-        <v>-79.334400</v>
+        <v>-79.334400000000002</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>45068.802316</v>
+        <v>45068.802316000001</v>
       </c>
       <c r="AF9" s="1">
         <v>12.519112</v>
       </c>
       <c r="AG9" s="1">
-        <v>970.773000</v>
+        <v>970.77300000000002</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.556800</v>
+        <v>-79.556799999999996</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>45079.624024</v>
+        <v>45079.624023999997</v>
       </c>
       <c r="AK9" s="1">
-        <v>12.522118</v>
+        <v>12.522118000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>979.243000</v>
+        <v>979.24300000000005</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.854700</v>
+        <v>-87.854699999999994</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>45090.347499</v>
+        <v>45090.347499000003</v>
       </c>
       <c r="AP9" s="1">
-        <v>12.525097</v>
+        <v>12.525097000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>988.720000</v>
+        <v>988.72</v>
       </c>
       <c r="AR9" s="1">
-        <v>-103.118000</v>
+        <v>-103.11799999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>45101.414238</v>
+        <v>45101.414237999998</v>
       </c>
       <c r="AU9" s="1">
         <v>12.528171</v>
       </c>
       <c r="AV9" s="1">
-        <v>1000.290000</v>
+        <v>1000.29</v>
       </c>
       <c r="AW9" s="1">
-        <v>-124.943000</v>
+        <v>-124.943</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>45113.186285</v>
+        <v>45113.186285000003</v>
       </c>
       <c r="AZ9" s="1">
-        <v>12.531441</v>
+        <v>12.531440999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1010.000000</v>
+        <v>1010</v>
       </c>
       <c r="BB9" s="1">
-        <v>-143.894000</v>
+        <v>-143.89400000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>45124.152335</v>
+        <v>45124.152334999999</v>
       </c>
       <c r="BE9" s="1">
         <v>12.534487</v>
       </c>
       <c r="BF9" s="1">
-        <v>1055.520000</v>
+        <v>1055.52</v>
       </c>
       <c r="BG9" s="1">
-        <v>-229.597000</v>
+        <v>-229.59700000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>45135.000870</v>
+        <v>45135.000870000003</v>
       </c>
       <c r="BJ9" s="1">
-        <v>12.537500</v>
+        <v>12.5375</v>
       </c>
       <c r="BK9" s="1">
-        <v>1135.200000</v>
+        <v>1135.2</v>
       </c>
       <c r="BL9" s="1">
-        <v>-367.260000</v>
+        <v>-367.26</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>45146.366161</v>
+        <v>45146.366160999998</v>
       </c>
       <c r="BO9" s="1">
-        <v>12.540657</v>
+        <v>12.540656999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1267.010000</v>
+        <v>1267.01</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-580.791000</v>
+        <v>-580.79100000000005</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>45156.819843</v>
+        <v>45156.819842999997</v>
       </c>
       <c r="BT9" s="1">
         <v>12.543561</v>
       </c>
       <c r="BU9" s="1">
-        <v>1415.310000</v>
+        <v>1415.31</v>
       </c>
       <c r="BV9" s="1">
-        <v>-810.121000</v>
+        <v>-810.12099999999998</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>45168.330004</v>
+        <v>45168.330004000003</v>
       </c>
       <c r="BY9" s="1">
-        <v>12.546758</v>
+        <v>12.546758000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1578.630000</v>
+        <v>1578.63</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1049.070000</v>
+        <v>-1049.07</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>45179.587733</v>
@@ -2520,75 +2936,75 @@
         <v>12.549885</v>
       </c>
       <c r="CE9" s="1">
-        <v>1993.830000</v>
+        <v>1993.83</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1610.260000</v>
+        <v>-1610.26</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>45006.380298</v>
+        <v>45006.380297999996</v>
       </c>
       <c r="B10" s="1">
-        <v>12.501772</v>
+        <v>12.501772000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>908.507000</v>
+        <v>908.50699999999995</v>
       </c>
       <c r="D10" s="1">
-        <v>-174.831000</v>
+        <v>-174.83099999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>45016.434173</v>
+        <v>45016.434173000001</v>
       </c>
       <c r="G10" s="1">
-        <v>12.504565</v>
+        <v>12.504564999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>922.365000</v>
+        <v>922.36500000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-150.004000</v>
+        <v>-150.00399999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>45026.913647</v>
+        <v>45026.913647000001</v>
       </c>
       <c r="L10" s="1">
         <v>12.507476</v>
       </c>
       <c r="M10" s="1">
-        <v>942.934000</v>
+        <v>942.93399999999997</v>
       </c>
       <c r="N10" s="1">
-        <v>-111.331000</v>
+        <v>-111.331</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>45037.512693</v>
+        <v>45037.512692999997</v>
       </c>
       <c r="Q10" s="1">
-        <v>12.510420</v>
+        <v>12.51042</v>
       </c>
       <c r="R10" s="1">
-        <v>949.927000</v>
+        <v>949.92700000000002</v>
       </c>
       <c r="S10" s="1">
-        <v>-98.496500</v>
+        <v>-98.496499999999997</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>45048.199986</v>
@@ -2597,300 +3013,300 @@
         <v>12.513389</v>
       </c>
       <c r="W10" s="1">
-        <v>957.155000</v>
+        <v>957.15499999999997</v>
       </c>
       <c r="X10" s="1">
-        <v>-87.015400</v>
+        <v>-87.0154</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>45058.633674</v>
+        <v>45058.633673999997</v>
       </c>
       <c r="AA10" s="1">
         <v>12.516287</v>
       </c>
       <c r="AB10" s="1">
-        <v>965.319000</v>
+        <v>965.31899999999996</v>
       </c>
       <c r="AC10" s="1">
-        <v>-79.335500</v>
+        <v>-79.335499999999996</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>45069.146007</v>
+        <v>45069.146007000003</v>
       </c>
       <c r="AF10" s="1">
         <v>12.519207</v>
       </c>
       <c r="AG10" s="1">
-        <v>970.951000</v>
+        <v>970.95100000000002</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.466000</v>
+        <v>-79.465999999999994</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>45079.971194</v>
+        <v>45079.971193999998</v>
       </c>
       <c r="AK10" s="1">
         <v>12.522214</v>
       </c>
       <c r="AL10" s="1">
-        <v>979.251000</v>
+        <v>979.25099999999998</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.847900</v>
+        <v>-87.847899999999996</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>45090.705114</v>
+        <v>45090.705113999997</v>
       </c>
       <c r="AP10" s="1">
-        <v>12.525196</v>
+        <v>12.525195999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>988.696000</v>
+        <v>988.69600000000003</v>
       </c>
       <c r="AR10" s="1">
-        <v>-103.151000</v>
+        <v>-103.151</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>45102.143382</v>
+        <v>45102.143382000002</v>
       </c>
       <c r="AU10" s="1">
         <v>12.528373</v>
       </c>
       <c r="AV10" s="1">
-        <v>1000.280000</v>
+        <v>1000.28</v>
       </c>
       <c r="AW10" s="1">
-        <v>-124.974000</v>
+        <v>-124.974</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>45113.561260</v>
+        <v>45113.561260000002</v>
       </c>
       <c r="AZ10" s="1">
-        <v>12.531545</v>
+        <v>12.531544999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1010.020000</v>
+        <v>1010.02</v>
       </c>
       <c r="BB10" s="1">
-        <v>-143.905000</v>
+        <v>-143.905</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>45124.508959</v>
+        <v>45124.508958999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>12.534586</v>
+        <v>12.534585999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1055.560000</v>
+        <v>1055.56</v>
       </c>
       <c r="BG10" s="1">
-        <v>-229.589000</v>
+        <v>-229.589</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>45135.374852</v>
+        <v>45135.374852000001</v>
       </c>
       <c r="BJ10" s="1">
         <v>12.537604</v>
       </c>
       <c r="BK10" s="1">
-        <v>1135.170000</v>
+        <v>1135.17</v>
       </c>
       <c r="BL10" s="1">
-        <v>-367.321000</v>
+        <v>-367.32100000000003</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>45147.078453</v>
+        <v>45147.078453000002</v>
       </c>
       <c r="BO10" s="1">
-        <v>12.540855</v>
+        <v>12.540855000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1266.960000</v>
+        <v>1266.96</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-580.824000</v>
+        <v>-580.82399999999996</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>45157.566819</v>
       </c>
       <c r="BT10" s="1">
-        <v>12.543769</v>
+        <v>12.543768999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1415.270000</v>
+        <v>1415.27</v>
       </c>
       <c r="BV10" s="1">
-        <v>-810.094000</v>
+        <v>-810.09400000000005</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>45168.446068</v>
+        <v>45168.446067999997</v>
       </c>
       <c r="BY10" s="1">
-        <v>12.546791</v>
+        <v>12.546791000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1578.620000</v>
+        <v>1578.62</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1049.100000</v>
+        <v>-1049.0999999999999</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>45180.107045</v>
+        <v>45180.107044999997</v>
       </c>
       <c r="CD10" s="1">
-        <v>12.550030</v>
+        <v>12.55003</v>
       </c>
       <c r="CE10" s="1">
-        <v>1993.950000</v>
+        <v>1993.95</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1608.380000</v>
+        <v>-1608.38</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>45006.722507</v>
+        <v>45006.722506999999</v>
       </c>
       <c r="B11" s="1">
-        <v>12.501867</v>
+        <v>12.501867000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>908.429000</v>
+        <v>908.42899999999997</v>
       </c>
       <c r="D11" s="1">
-        <v>-174.859000</v>
+        <v>-174.85900000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>45016.859740</v>
+        <v>45016.85974</v>
       </c>
       <c r="G11" s="1">
         <v>12.504683</v>
       </c>
       <c r="H11" s="1">
-        <v>922.228000</v>
+        <v>922.22799999999995</v>
       </c>
       <c r="I11" s="1">
-        <v>-150.022000</v>
+        <v>-150.02199999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>45027.329823</v>
       </c>
       <c r="L11" s="1">
-        <v>12.507592</v>
+        <v>12.507592000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>943.105000</v>
+        <v>943.10500000000002</v>
       </c>
       <c r="N11" s="1">
-        <v>-111.341000</v>
+        <v>-111.34099999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>45037.800865</v>
+        <v>45037.800864999997</v>
       </c>
       <c r="Q11" s="1">
-        <v>12.510500</v>
+        <v>12.5105</v>
       </c>
       <c r="R11" s="1">
-        <v>949.870000</v>
+        <v>949.87</v>
       </c>
       <c r="S11" s="1">
-        <v>-98.500500</v>
+        <v>-98.500500000000002</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>45048.543714</v>
+        <v>45048.543713999999</v>
       </c>
       <c r="V11" s="1">
         <v>12.513484</v>
       </c>
       <c r="W11" s="1">
-        <v>956.994000</v>
+        <v>956.99400000000003</v>
       </c>
       <c r="X11" s="1">
-        <v>-87.020300</v>
+        <v>-87.020300000000006</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>45058.984965</v>
+        <v>45058.984965000003</v>
       </c>
       <c r="AA11" s="1">
         <v>12.516385</v>
       </c>
       <c r="AB11" s="1">
-        <v>965.352000</v>
+        <v>965.35199999999998</v>
       </c>
       <c r="AC11" s="1">
-        <v>-79.334100</v>
+        <v>-79.334100000000007</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>45069.487263</v>
+        <v>45069.487263000003</v>
       </c>
       <c r="AF11" s="1">
         <v>12.519302</v>
       </c>
       <c r="AG11" s="1">
-        <v>970.859000</v>
+        <v>970.85900000000004</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.545900</v>
+        <v>-79.545900000000003</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>45080.669102</v>
@@ -2899,13 +3315,13 @@
         <v>12.522408</v>
       </c>
       <c r="AL11" s="1">
-        <v>979.269000</v>
+        <v>979.26900000000001</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.866500</v>
+        <v>-87.866500000000002</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>45091.430772</v>
@@ -2914,43 +3330,43 @@
         <v>12.525397</v>
       </c>
       <c r="AQ11" s="1">
-        <v>988.706000</v>
+        <v>988.70600000000002</v>
       </c>
       <c r="AR11" s="1">
-        <v>-103.108000</v>
+        <v>-103.108</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>45102.536186</v>
+        <v>45102.536185999998</v>
       </c>
       <c r="AU11" s="1">
         <v>12.528482</v>
       </c>
       <c r="AV11" s="1">
-        <v>1000.270000</v>
+        <v>1000.27</v>
       </c>
       <c r="AW11" s="1">
-        <v>-124.951000</v>
+        <v>-124.95099999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>45113.943180</v>
+        <v>45113.943180000002</v>
       </c>
       <c r="AZ11" s="1">
         <v>12.531651</v>
       </c>
       <c r="BA11" s="1">
-        <v>1010.000000</v>
+        <v>1010</v>
       </c>
       <c r="BB11" s="1">
-        <v>-143.936000</v>
+        <v>-143.93600000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>45124.879469</v>
@@ -2959,58 +3375,58 @@
         <v>12.534689</v>
       </c>
       <c r="BF11" s="1">
-        <v>1055.540000</v>
+        <v>1055.54</v>
       </c>
       <c r="BG11" s="1">
-        <v>-229.592000</v>
+        <v>-229.59200000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>45136.067726</v>
+        <v>45136.067726000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>12.537797</v>
+        <v>12.537796999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1135.170000</v>
+        <v>1135.17</v>
       </c>
       <c r="BL11" s="1">
-        <v>-367.315000</v>
+        <v>-367.315</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>45147.189061</v>
+        <v>45147.189060999997</v>
       </c>
       <c r="BO11" s="1">
         <v>12.540886</v>
       </c>
       <c r="BP11" s="1">
-        <v>1266.980000</v>
+        <v>1266.98</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-580.826000</v>
+        <v>-580.82600000000002</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>45157.678948</v>
+        <v>45157.678948000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>12.543800</v>
+        <v>12.543799999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1415.190000</v>
+        <v>1415.19</v>
       </c>
       <c r="BV11" s="1">
-        <v>-810.087000</v>
+        <v>-810.08699999999999</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>45168.893956</v>
@@ -3019,332 +3435,332 @@
         <v>12.546915</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1578.700000</v>
+        <v>1578.7</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1049.080000</v>
+        <v>-1049.08</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>45180.623356</v>
+        <v>45180.623355999996</v>
       </c>
       <c r="CD11" s="1">
-        <v>12.550173</v>
+        <v>12.550172999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1992.410000</v>
+        <v>1992.41</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1608.570000</v>
+        <v>-1608.57</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>45007.145097</v>
+        <v>45007.145097000001</v>
       </c>
       <c r="B12" s="1">
-        <v>12.501985</v>
+        <v>12.501984999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>908.572000</v>
+        <v>908.572</v>
       </c>
       <c r="D12" s="1">
-        <v>-175.039000</v>
+        <v>-175.03899999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>45017.138988</v>
+        <v>45017.138987999999</v>
       </c>
       <c r="G12" s="1">
         <v>12.504761</v>
       </c>
       <c r="H12" s="1">
-        <v>922.441000</v>
+        <v>922.44100000000003</v>
       </c>
       <c r="I12" s="1">
-        <v>-150.247000</v>
+        <v>-150.24700000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>45027.627920</v>
+        <v>45027.627919999999</v>
       </c>
       <c r="L12" s="1">
         <v>12.507674</v>
       </c>
       <c r="M12" s="1">
-        <v>943.081000</v>
+        <v>943.08100000000002</v>
       </c>
       <c r="N12" s="1">
-        <v>-111.249000</v>
+        <v>-111.249</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>45038.148033</v>
+        <v>45038.148032999998</v>
       </c>
       <c r="Q12" s="1">
-        <v>12.510597</v>
+        <v>12.510597000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>949.888000</v>
+        <v>949.88800000000003</v>
       </c>
       <c r="S12" s="1">
-        <v>-98.448800</v>
+        <v>-98.448800000000006</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>45048.886914</v>
+        <v>45048.886914000002</v>
       </c>
       <c r="V12" s="1">
-        <v>12.513580</v>
+        <v>12.513579999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>957.075000</v>
+        <v>957.07500000000005</v>
       </c>
       <c r="X12" s="1">
-        <v>-87.084000</v>
+        <v>-87.084000000000003</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>45059.331699</v>
+        <v>45059.331699000002</v>
       </c>
       <c r="AA12" s="1">
-        <v>12.516481</v>
+        <v>12.516481000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>965.291000</v>
+        <v>965.29100000000005</v>
       </c>
       <c r="AC12" s="1">
-        <v>-79.302900</v>
+        <v>-79.302899999999994</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>45070.175702</v>
       </c>
       <c r="AF12" s="1">
-        <v>12.519493</v>
+        <v>12.519493000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>970.787000</v>
+        <v>970.78700000000003</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.523000</v>
+        <v>-79.522999999999996</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>45081.016760</v>
+        <v>45081.016759999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>12.522505</v>
+        <v>12.522505000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>979.246000</v>
+        <v>979.24599999999998</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.875700</v>
+        <v>-87.875699999999995</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>45091.806265</v>
+        <v>45091.806264999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>12.525502</v>
+        <v>12.525501999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>988.707000</v>
+        <v>988.70699999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-103.141000</v>
+        <v>-103.14100000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>45102.897306</v>
+        <v>45102.897305999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>12.528583</v>
+        <v>12.528582999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1000.270000</v>
+        <v>1000.27</v>
       </c>
       <c r="AW12" s="1">
-        <v>-124.945000</v>
+        <v>-124.94499999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>45114.612055</v>
+        <v>45114.612054999998</v>
       </c>
       <c r="AZ12" s="1">
-        <v>12.531837</v>
+        <v>12.531836999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1010.030000</v>
+        <v>1010.03</v>
       </c>
       <c r="BB12" s="1">
-        <v>-143.915000</v>
+        <v>-143.91499999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>45125.540636</v>
+        <v>45125.540635999998</v>
       </c>
       <c r="BE12" s="1">
         <v>12.534872</v>
       </c>
       <c r="BF12" s="1">
-        <v>1055.550000</v>
+        <v>1055.55</v>
       </c>
       <c r="BG12" s="1">
-        <v>-229.577000</v>
+        <v>-229.577</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>45136.534461</v>
+        <v>45136.534461000003</v>
       </c>
       <c r="BJ12" s="1">
-        <v>12.537926</v>
+        <v>12.537926000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1135.170000</v>
+        <v>1135.17</v>
       </c>
       <c r="BL12" s="1">
-        <v>-367.301000</v>
+        <v>-367.30099999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>45147.606159</v>
+        <v>45147.606159000003</v>
       </c>
       <c r="BO12" s="1">
-        <v>12.541002</v>
+        <v>12.541002000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1267.000000</v>
+        <v>1267</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-580.835000</v>
+        <v>-580.83500000000004</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>45158.116916</v>
+        <v>45158.116915999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>12.543921</v>
+        <v>12.543920999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1415.130000</v>
+        <v>1415.13</v>
       </c>
       <c r="BV12" s="1">
-        <v>-810.128000</v>
+        <v>-810.12800000000004</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>45169.326989</v>
+        <v>45169.326989000001</v>
       </c>
       <c r="BY12" s="1">
-        <v>12.547035</v>
+        <v>12.547034999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1578.700000</v>
+        <v>1578.7</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1049.030000</v>
+        <v>-1049.03</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>45181.144180</v>
+        <v>45181.144180000003</v>
       </c>
       <c r="CD12" s="1">
-        <v>12.550318</v>
+        <v>12.550318000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1993.240000</v>
+        <v>1993.24</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1608.450000</v>
+        <v>-1608.45</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>45007.423352</v>
+        <v>45007.423351999998</v>
       </c>
       <c r="B13" s="1">
         <v>12.502062</v>
       </c>
       <c r="C13" s="1">
-        <v>908.468000</v>
+        <v>908.46799999999996</v>
       </c>
       <c r="D13" s="1">
-        <v>-174.842000</v>
+        <v>-174.84200000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>45017.484239</v>
+        <v>45017.484238999998</v>
       </c>
       <c r="G13" s="1">
-        <v>12.504857</v>
+        <v>12.504856999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>922.559000</v>
+        <v>922.55899999999997</v>
       </c>
       <c r="I13" s="1">
-        <v>-150.138000</v>
+        <v>-150.13800000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>45027.975087</v>
+        <v>45027.975086999999</v>
       </c>
       <c r="L13" s="1">
         <v>12.507771</v>
       </c>
       <c r="M13" s="1">
-        <v>943.154000</v>
+        <v>943.154</v>
       </c>
       <c r="N13" s="1">
-        <v>-111.278000</v>
+        <v>-111.27800000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>45038.500687</v>
@@ -3353,285 +3769,285 @@
         <v>12.510695</v>
       </c>
       <c r="R13" s="1">
-        <v>949.927000</v>
+        <v>949.92700000000002</v>
       </c>
       <c r="S13" s="1">
-        <v>-98.392100</v>
+        <v>-98.392099999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>45049.573874</v>
+        <v>45049.573874000002</v>
       </c>
       <c r="V13" s="1">
         <v>12.513771</v>
       </c>
       <c r="W13" s="1">
-        <v>957.101000</v>
+        <v>957.101</v>
       </c>
       <c r="X13" s="1">
-        <v>-87.039600</v>
+        <v>-87.039599999999993</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>45060.030035</v>
+        <v>45060.030035000003</v>
       </c>
       <c r="AA13" s="1">
-        <v>12.516675</v>
+        <v>12.516674999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>965.354000</v>
+        <v>965.35400000000004</v>
       </c>
       <c r="AC13" s="1">
-        <v>-79.325600</v>
+        <v>-79.325599999999994</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>45070.517445</v>
+        <v>45070.517444999998</v>
       </c>
       <c r="AF13" s="1">
-        <v>12.519588</v>
+        <v>12.519588000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>970.796000</v>
+        <v>970.79600000000005</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.530000</v>
+        <v>-79.53</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>45081.365942</v>
+        <v>45081.365941999997</v>
       </c>
       <c r="AK13" s="1">
-        <v>12.522602</v>
+        <v>12.522601999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>979.257000</v>
+        <v>979.25699999999995</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.849000</v>
+        <v>-87.849000000000004</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>45092.169336</v>
+        <v>45092.169335999999</v>
       </c>
       <c r="AP13" s="1">
         <v>12.525603</v>
       </c>
       <c r="AQ13" s="1">
-        <v>988.692000</v>
+        <v>988.69200000000001</v>
       </c>
       <c r="AR13" s="1">
-        <v>-103.100000</v>
+        <v>-103.1</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>45103.571337</v>
+        <v>45103.571337000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>12.528770</v>
+        <v>12.52877</v>
       </c>
       <c r="AV13" s="1">
-        <v>1000.280000</v>
+        <v>1000.28</v>
       </c>
       <c r="AW13" s="1">
-        <v>-124.962000</v>
+        <v>-124.962</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>45115.024458</v>
       </c>
       <c r="AZ13" s="1">
-        <v>12.531951</v>
+        <v>12.531950999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1010.000000</v>
+        <v>1010</v>
       </c>
       <c r="BB13" s="1">
-        <v>-143.897000</v>
+        <v>-143.89699999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>45125.990541</v>
+        <v>45125.990540999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>12.534997</v>
+        <v>12.534997000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1055.560000</v>
+        <v>1055.56</v>
       </c>
       <c r="BG13" s="1">
-        <v>-229.613000</v>
+        <v>-229.613</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>45136.922831</v>
+        <v>45136.922831000003</v>
       </c>
       <c r="BJ13" s="1">
         <v>12.538034</v>
       </c>
       <c r="BK13" s="1">
-        <v>1135.190000</v>
+        <v>1135.19</v>
       </c>
       <c r="BL13" s="1">
-        <v>-367.294000</v>
+        <v>-367.29399999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>45148.006432</v>
+        <v>45148.006432000002</v>
       </c>
       <c r="BO13" s="1">
-        <v>12.541113</v>
+        <v>12.541112999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1266.980000</v>
+        <v>1266.98</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-580.843000</v>
+        <v>-580.84299999999996</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>45158.533521</v>
+        <v>45158.533520999998</v>
       </c>
       <c r="BT13" s="1">
-        <v>12.544037</v>
+        <v>12.544036999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1415.080000</v>
+        <v>1415.08</v>
       </c>
       <c r="BV13" s="1">
-        <v>-810.059000</v>
+        <v>-810.05899999999997</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>45169.748067</v>
       </c>
       <c r="BY13" s="1">
-        <v>12.547152</v>
+        <v>12.547152000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1578.650000</v>
+        <v>1578.65</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1049.170000</v>
+        <v>-1049.17</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>45181.695734</v>
+        <v>45181.695734000001</v>
       </c>
       <c r="CD13" s="1">
         <v>12.550471</v>
       </c>
       <c r="CE13" s="1">
-        <v>1993.590000</v>
+        <v>1993.59</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1608.580000</v>
+        <v>-1608.58</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>45007.765592</v>
+        <v>45007.765592000003</v>
       </c>
       <c r="B14" s="1">
         <v>12.502157</v>
       </c>
       <c r="C14" s="1">
-        <v>908.296000</v>
+        <v>908.29600000000005</v>
       </c>
       <c r="D14" s="1">
-        <v>-175.016000</v>
+        <v>-175.01599999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>45017.828428</v>
+        <v>45017.828428000001</v>
       </c>
       <c r="G14" s="1">
-        <v>12.504952</v>
+        <v>12.504951999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>922.514000</v>
+        <v>922.51400000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-149.780000</v>
+        <v>-149.78</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>45028.320797</v>
       </c>
       <c r="L14" s="1">
-        <v>12.507867</v>
+        <v>12.507866999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>943.097000</v>
+        <v>943.09699999999998</v>
       </c>
       <c r="N14" s="1">
-        <v>-111.374000</v>
+        <v>-111.374</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>45039.194095</v>
+        <v>45039.194094999999</v>
       </c>
       <c r="Q14" s="1">
         <v>12.510887</v>
       </c>
       <c r="R14" s="1">
-        <v>949.947000</v>
+        <v>949.947</v>
       </c>
       <c r="S14" s="1">
-        <v>-98.416300</v>
+        <v>-98.416300000000007</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>45049.918628</v>
+        <v>45049.918627999999</v>
       </c>
       <c r="V14" s="1">
         <v>12.513866</v>
       </c>
       <c r="W14" s="1">
-        <v>957.006000</v>
+        <v>957.00599999999997</v>
       </c>
       <c r="X14" s="1">
-        <v>-87.050500</v>
+        <v>-87.0505</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>45060.377731</v>
@@ -3640,28 +4056,28 @@
         <v>12.516772</v>
       </c>
       <c r="AB14" s="1">
-        <v>965.347000</v>
+        <v>965.34699999999998</v>
       </c>
       <c r="AC14" s="1">
-        <v>-79.361800</v>
+        <v>-79.361800000000002</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>45070.866134</v>
+        <v>45070.866134000004</v>
       </c>
       <c r="AF14" s="1">
-        <v>12.519685</v>
+        <v>12.519685000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>970.842000</v>
+        <v>970.84199999999998</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.556500</v>
+        <v>-79.5565</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>45082.030605</v>
@@ -3670,527 +4086,527 @@
         <v>12.522786</v>
       </c>
       <c r="AL14" s="1">
-        <v>979.231000</v>
+        <v>979.23099999999999</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.841300</v>
+        <v>-87.841300000000004</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>45092.840889</v>
+        <v>45092.840888999999</v>
       </c>
       <c r="AP14" s="1">
         <v>12.525789</v>
       </c>
       <c r="AQ14" s="1">
-        <v>988.687000</v>
+        <v>988.68700000000001</v>
       </c>
       <c r="AR14" s="1">
-        <v>-103.116000</v>
+        <v>-103.116</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>45103.992938</v>
+        <v>45103.992938000003</v>
       </c>
       <c r="AU14" s="1">
-        <v>12.528887</v>
+        <v>12.528886999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1000.290000</v>
+        <v>1000.29</v>
       </c>
       <c r="AW14" s="1">
-        <v>-124.947000</v>
+        <v>-124.947</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>45115.398443</v>
+        <v>45115.398442999998</v>
       </c>
       <c r="AZ14" s="1">
         <v>12.532055</v>
       </c>
       <c r="BA14" s="1">
-        <v>1010.020000</v>
+        <v>1010.02</v>
       </c>
       <c r="BB14" s="1">
-        <v>-143.897000</v>
+        <v>-143.89699999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>45126.351137</v>
+        <v>45126.351136999998</v>
       </c>
       <c r="BE14" s="1">
         <v>12.535098</v>
       </c>
       <c r="BF14" s="1">
-        <v>1055.530000</v>
+        <v>1055.53</v>
       </c>
       <c r="BG14" s="1">
-        <v>-229.611000</v>
+        <v>-229.61099999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>45137.296813</v>
+        <v>45137.296813000001</v>
       </c>
       <c r="BJ14" s="1">
         <v>12.538138</v>
       </c>
       <c r="BK14" s="1">
-        <v>1135.190000</v>
+        <v>1135.19</v>
       </c>
       <c r="BL14" s="1">
-        <v>-367.272000</v>
+        <v>-367.27199999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>45148.426575</v>
+        <v>45148.426574999998</v>
       </c>
       <c r="BO14" s="1">
-        <v>12.541230</v>
+        <v>12.541230000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1266.970000</v>
+        <v>1266.97</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-580.865000</v>
+        <v>-580.86500000000001</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>45158.960576</v>
+        <v>45158.960575999998</v>
       </c>
       <c r="BT14" s="1">
-        <v>12.544156</v>
+        <v>12.544155999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1415.070000</v>
+        <v>1415.07</v>
       </c>
       <c r="BV14" s="1">
-        <v>-810.024000</v>
+        <v>-810.024</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>45170.170657</v>
+        <v>45170.170657000002</v>
       </c>
       <c r="BY14" s="1">
-        <v>12.547270</v>
+        <v>12.547269999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1578.730000</v>
+        <v>1578.73</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1049.200000</v>
+        <v>-1049.2</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>45182.226418</v>
+        <v>45182.226417999998</v>
       </c>
       <c r="CD14" s="1">
         <v>12.550618</v>
       </c>
       <c r="CE14" s="1">
-        <v>1991.890000</v>
+        <v>1991.89</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1608.740000</v>
+        <v>-1608.74</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>45008.106840</v>
+        <v>45008.10684</v>
       </c>
       <c r="B15" s="1">
         <v>12.502252</v>
       </c>
       <c r="C15" s="1">
-        <v>908.402000</v>
+        <v>908.40200000000004</v>
       </c>
       <c r="D15" s="1">
-        <v>-174.951000</v>
+        <v>-174.95099999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>45018.518859</v>
+        <v>45018.518859000003</v>
       </c>
       <c r="G15" s="1">
         <v>12.505144</v>
       </c>
       <c r="H15" s="1">
-        <v>922.305000</v>
+        <v>922.30499999999995</v>
       </c>
       <c r="I15" s="1">
-        <v>-150.123000</v>
+        <v>-150.12299999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>45029.013709</v>
+        <v>45029.013708999999</v>
       </c>
       <c r="L15" s="1">
-        <v>12.508059</v>
+        <v>12.508058999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>943.030000</v>
+        <v>943.03</v>
       </c>
       <c r="N15" s="1">
-        <v>-111.213000</v>
+        <v>-111.21299999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>45039.542782</v>
+        <v>45039.542781999997</v>
       </c>
       <c r="Q15" s="1">
-        <v>12.510984</v>
+        <v>12.510984000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>949.914000</v>
+        <v>949.91399999999999</v>
       </c>
       <c r="S15" s="1">
-        <v>-98.402100</v>
+        <v>-98.402100000000004</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>45050.257855</v>
+        <v>45050.257855000003</v>
       </c>
       <c r="V15" s="1">
         <v>12.513961</v>
       </c>
       <c r="W15" s="1">
-        <v>956.995000</v>
+        <v>956.995</v>
       </c>
       <c r="X15" s="1">
-        <v>-86.892300</v>
+        <v>-86.892300000000006</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>45060.724436</v>
+        <v>45060.724435999997</v>
       </c>
       <c r="AA15" s="1">
-        <v>12.516868</v>
+        <v>12.516868000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>965.383000</v>
+        <v>965.38300000000004</v>
       </c>
       <c r="AC15" s="1">
-        <v>-79.437600</v>
+        <v>-79.437600000000003</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>45071.528291</v>
+        <v>45071.528291000002</v>
       </c>
       <c r="AF15" s="1">
         <v>12.519869</v>
       </c>
       <c r="AG15" s="1">
-        <v>970.812000</v>
+        <v>970.81200000000001</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.544900</v>
+        <v>-79.544899999999998</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>45082.412501</v>
+        <v>45082.412500999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>12.522892</v>
+        <v>12.522892000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>979.260000</v>
+        <v>979.26</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.855500</v>
+        <v>-87.855500000000006</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>45093.246615</v>
+        <v>45093.246614999996</v>
       </c>
       <c r="AP15" s="1">
         <v>12.525902</v>
       </c>
       <c r="AQ15" s="1">
-        <v>988.703000</v>
+        <v>988.70299999999997</v>
       </c>
       <c r="AR15" s="1">
-        <v>-103.109000</v>
+        <v>-103.10899999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>45104.378328</v>
+        <v>45104.378327999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>12.528994</v>
+        <v>12.528994000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1000.290000</v>
+        <v>1000.29</v>
       </c>
       <c r="AW15" s="1">
-        <v>-124.953000</v>
+        <v>-124.953</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>45115.780393</v>
+        <v>45115.780393000001</v>
       </c>
       <c r="AZ15" s="1">
         <v>12.532161</v>
       </c>
       <c r="BA15" s="1">
-        <v>1010.020000</v>
+        <v>1010.02</v>
       </c>
       <c r="BB15" s="1">
-        <v>-143.901000</v>
+        <v>-143.90100000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>45126.711724</v>
+        <v>45126.711724000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>12.535198</v>
+        <v>12.535197999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1055.540000</v>
+        <v>1055.54</v>
       </c>
       <c r="BG15" s="1">
-        <v>-229.590000</v>
+        <v>-229.59</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>45137.710478</v>
+        <v>45137.710478000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>12.538253</v>
+        <v>12.538252999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1135.180000</v>
+        <v>1135.18</v>
       </c>
       <c r="BL15" s="1">
-        <v>-367.312000</v>
+        <v>-367.31200000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>45148.821853</v>
+        <v>45148.821853000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>12.541339</v>
+        <v>12.541339000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1266.970000</v>
+        <v>1266.97</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-580.865000</v>
+        <v>-580.86500000000001</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>45159.391269</v>
       </c>
       <c r="BT15" s="1">
-        <v>12.544275</v>
+        <v>12.544275000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1415.030000</v>
+        <v>1415.03</v>
       </c>
       <c r="BV15" s="1">
-        <v>-810.035000</v>
+        <v>-810.03499999999997</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>45170.624993</v>
+        <v>45170.624992999998</v>
       </c>
       <c r="BY15" s="1">
-        <v>12.547396</v>
+        <v>12.547396000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1578.750000</v>
+        <v>1578.75</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1049.130000</v>
+        <v>-1049.1300000000001</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>45182.742754</v>
+        <v>45182.742753999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>12.550762</v>
+        <v>12.550762000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>1992.270000</v>
+        <v>1992.27</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1610.190000</v>
+        <v>-1610.19</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>45008.789830</v>
+        <v>45008.789830000002</v>
       </c>
       <c r="B16" s="1">
         <v>12.502442</v>
       </c>
       <c r="C16" s="1">
-        <v>908.469000</v>
+        <v>908.46900000000005</v>
       </c>
       <c r="D16" s="1">
-        <v>-174.944000</v>
+        <v>-174.94399999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>45018.861625</v>
+        <v>45018.861624999998</v>
       </c>
       <c r="G16" s="1">
         <v>12.505239</v>
       </c>
       <c r="H16" s="1">
-        <v>922.695000</v>
+        <v>922.69500000000005</v>
       </c>
       <c r="I16" s="1">
-        <v>-149.955000</v>
+        <v>-149.95500000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>45029.358962</v>
+        <v>45029.358961999998</v>
       </c>
       <c r="L16" s="1">
         <v>12.508155</v>
       </c>
       <c r="M16" s="1">
-        <v>943.091000</v>
+        <v>943.09100000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-111.151000</v>
+        <v>-111.151</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>45039.892000</v>
+        <v>45039.892</v>
       </c>
       <c r="Q16" s="1">
-        <v>12.511081</v>
+        <v>12.511081000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>949.896000</v>
+        <v>949.89599999999996</v>
       </c>
       <c r="S16" s="1">
-        <v>-98.420000</v>
+        <v>-98.42</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>45050.920511</v>
+        <v>45050.920510999997</v>
       </c>
       <c r="V16" s="1">
-        <v>12.514145</v>
+        <v>12.514144999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>957.067000</v>
+        <v>957.06700000000001</v>
       </c>
       <c r="X16" s="1">
-        <v>-87.029200</v>
+        <v>-87.029200000000003</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>45061.390067</v>
       </c>
       <c r="AA16" s="1">
-        <v>12.517053</v>
+        <v>12.517053000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>965.288000</v>
+        <v>965.28800000000001</v>
       </c>
       <c r="AC16" s="1">
-        <v>-79.404500</v>
+        <v>-79.404499999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>45071.902772</v>
+        <v>45071.902772000001</v>
       </c>
       <c r="AF16" s="1">
         <v>12.519973</v>
       </c>
       <c r="AG16" s="1">
-        <v>970.809000</v>
+        <v>970.80899999999997</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.577700</v>
+        <v>-79.577699999999993</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>45082.758741</v>
+        <v>45082.758740999998</v>
       </c>
       <c r="AK16" s="1">
-        <v>12.522989</v>
+        <v>12.522989000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>979.249000</v>
+        <v>979.24900000000002</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.848800</v>
+        <v>-87.848799999999997</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>45093.632006</v>
@@ -4199,724 +4615,724 @@
         <v>12.526009</v>
       </c>
       <c r="AQ16" s="1">
-        <v>988.732000</v>
+        <v>988.73199999999997</v>
       </c>
       <c r="AR16" s="1">
-        <v>-103.122000</v>
+        <v>-103.122</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>45104.743385</v>
+        <v>45104.743385000002</v>
       </c>
       <c r="AU16" s="1">
         <v>12.529095</v>
       </c>
       <c r="AV16" s="1">
-        <v>1000.280000</v>
+        <v>1000.28</v>
       </c>
       <c r="AW16" s="1">
-        <v>-124.945000</v>
+        <v>-124.94499999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>45116.212378</v>
+        <v>45116.212377999997</v>
       </c>
       <c r="AZ16" s="1">
-        <v>12.532281</v>
+        <v>12.532280999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1010.010000</v>
+        <v>1010.01</v>
       </c>
       <c r="BB16" s="1">
-        <v>-143.886000</v>
+        <v>-143.886</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>45127.186860</v>
+        <v>45127.186860000002</v>
       </c>
       <c r="BE16" s="1">
-        <v>12.535330</v>
+        <v>12.53533</v>
       </c>
       <c r="BF16" s="1">
-        <v>1055.530000</v>
+        <v>1055.53</v>
       </c>
       <c r="BG16" s="1">
-        <v>-229.592000</v>
+        <v>-229.59200000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>45138.048780</v>
+        <v>45138.048779999997</v>
       </c>
       <c r="BJ16" s="1">
         <v>12.538347</v>
       </c>
       <c r="BK16" s="1">
-        <v>1135.180000</v>
+        <v>1135.18</v>
       </c>
       <c r="BL16" s="1">
-        <v>-367.308000</v>
+        <v>-367.30799999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>45149.246926</v>
       </c>
       <c r="BO16" s="1">
-        <v>12.541457</v>
+        <v>12.541456999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1266.960000</v>
+        <v>1266.96</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-580.843000</v>
+        <v>-580.84299999999996</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>45159.800799</v>
+        <v>45159.800798999997</v>
       </c>
       <c r="BT16" s="1">
-        <v>12.544389</v>
+        <v>12.544389000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1414.960000</v>
+        <v>1414.96</v>
       </c>
       <c r="BV16" s="1">
-        <v>-809.952000</v>
+        <v>-809.952</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>45171.045139</v>
+        <v>45171.045139000002</v>
       </c>
       <c r="BY16" s="1">
         <v>12.547513</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1578.820000</v>
+        <v>1578.82</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1049.270000</v>
+        <v>-1049.27</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>45183.258625</v>
+        <v>45183.258625000002</v>
       </c>
       <c r="CD16" s="1">
         <v>12.550905</v>
       </c>
       <c r="CE16" s="1">
-        <v>1993.740000</v>
+        <v>1993.74</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1609.720000</v>
+        <v>-1609.72</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>45009.134056</v>
+        <v>45009.134056000003</v>
       </c>
       <c r="B17" s="1">
         <v>12.502537</v>
       </c>
       <c r="C17" s="1">
-        <v>908.362000</v>
+        <v>908.36199999999997</v>
       </c>
       <c r="D17" s="1">
-        <v>-175.004000</v>
+        <v>-175.00399999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>45019.207337</v>
       </c>
       <c r="G17" s="1">
-        <v>12.505335</v>
+        <v>12.505335000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>922.335000</v>
+        <v>922.33500000000004</v>
       </c>
       <c r="I17" s="1">
-        <v>-150.172000</v>
+        <v>-150.172</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>45030.019100</v>
+        <v>45030.019099999998</v>
       </c>
       <c r="L17" s="1">
-        <v>12.508339</v>
+        <v>12.508338999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>943.094000</v>
+        <v>943.09400000000005</v>
       </c>
       <c r="N17" s="1">
-        <v>-111.233000</v>
+        <v>-111.233</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>45040.551842</v>
+        <v>45040.551842000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>12.511264</v>
+        <v>12.511264000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>949.861000</v>
+        <v>949.86099999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>-98.300000</v>
+        <v>-98.3</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>45051.290063</v>
       </c>
       <c r="V17" s="1">
-        <v>12.514247</v>
+        <v>12.514246999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>957.082000</v>
+        <v>957.08199999999999</v>
       </c>
       <c r="X17" s="1">
-        <v>-86.912200</v>
+        <v>-86.912199999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>45061.783393</v>
+        <v>45061.783392999998</v>
       </c>
       <c r="AA17" s="1">
-        <v>12.517162</v>
+        <v>12.517162000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>965.297000</v>
+        <v>965.29700000000003</v>
       </c>
       <c r="AC17" s="1">
-        <v>-79.356000</v>
+        <v>-79.355999999999995</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>45072.249071</v>
+        <v>45072.249070999998</v>
       </c>
       <c r="AF17" s="1">
-        <v>12.520069</v>
+        <v>12.520068999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>970.857000</v>
+        <v>970.85699999999997</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.570100</v>
+        <v>-79.570099999999996</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>45083.110870</v>
+        <v>45083.110869999997</v>
       </c>
       <c r="AK17" s="1">
-        <v>12.523086</v>
+        <v>12.523085999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>979.250000</v>
+        <v>979.25</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.873300</v>
+        <v>-87.8733</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>45093.993094</v>
+        <v>45093.993093999998</v>
       </c>
       <c r="AP17" s="1">
         <v>12.526109</v>
       </c>
       <c r="AQ17" s="1">
-        <v>988.703000</v>
+        <v>988.70299999999997</v>
       </c>
       <c r="AR17" s="1">
-        <v>-103.126000</v>
+        <v>-103.126</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>45105.160521</v>
+        <v>45105.160520999998</v>
       </c>
       <c r="AU17" s="1">
         <v>12.529211</v>
       </c>
       <c r="AV17" s="1">
-        <v>1000.290000</v>
+        <v>1000.29</v>
       </c>
       <c r="AW17" s="1">
-        <v>-124.950000</v>
+        <v>-124.95</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>45116.498072</v>
+        <v>45116.498072000002</v>
       </c>
       <c r="AZ17" s="1">
         <v>12.532361</v>
       </c>
       <c r="BA17" s="1">
-        <v>1010.010000</v>
+        <v>1010.01</v>
       </c>
       <c r="BB17" s="1">
-        <v>-143.901000</v>
+        <v>-143.90100000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>45127.466138</v>
+        <v>45127.466138000003</v>
       </c>
       <c r="BE17" s="1">
-        <v>12.535407</v>
+        <v>12.535406999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1055.520000</v>
+        <v>1055.52</v>
       </c>
       <c r="BG17" s="1">
-        <v>-229.588000</v>
+        <v>-229.58799999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>45138.431164</v>
+        <v>45138.431164000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>12.538453</v>
+        <v>12.538453000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1135.170000</v>
+        <v>1135.17</v>
       </c>
       <c r="BL17" s="1">
-        <v>-367.289000</v>
+        <v>-367.28899999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>45149.643724</v>
+        <v>45149.643724000001</v>
       </c>
       <c r="BO17" s="1">
         <v>12.541568</v>
       </c>
       <c r="BP17" s="1">
-        <v>1266.950000</v>
+        <v>1266.95</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-580.812000</v>
+        <v>-580.81200000000001</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>45160.568111</v>
       </c>
       <c r="BT17" s="1">
-        <v>12.544602</v>
+        <v>12.544601999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1414.920000</v>
+        <v>1414.92</v>
       </c>
       <c r="BV17" s="1">
-        <v>-809.840000</v>
+        <v>-809.84</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>45171.488079</v>
+        <v>45171.488079000002</v>
       </c>
       <c r="BY17" s="1">
-        <v>12.547636</v>
+        <v>12.547636000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1578.840000</v>
+        <v>1578.84</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1049.140000</v>
+        <v>-1049.1400000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>45183.778399</v>
+        <v>45183.778399000003</v>
       </c>
       <c r="CD17" s="1">
-        <v>12.551050</v>
+        <v>12.55105</v>
       </c>
       <c r="CE17" s="1">
-        <v>1993.490000</v>
+        <v>1993.49</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1610.020000</v>
+        <v>-1610.02</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>45009.474344</v>
+        <v>45009.474344000002</v>
       </c>
       <c r="B18" s="1">
         <v>12.502632</v>
       </c>
       <c r="C18" s="1">
-        <v>908.221000</v>
+        <v>908.221</v>
       </c>
       <c r="D18" s="1">
-        <v>-175.072000</v>
+        <v>-175.072</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>45019.872475</v>
+        <v>45019.872474999996</v>
       </c>
       <c r="G18" s="1">
-        <v>12.505520</v>
+        <v>12.505520000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>921.796000</v>
+        <v>921.79600000000005</v>
       </c>
       <c r="I18" s="1">
-        <v>-149.936000</v>
+        <v>-149.93600000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>45030.395067</v>
+        <v>45030.395066999998</v>
       </c>
       <c r="L18" s="1">
         <v>12.508443</v>
       </c>
       <c r="M18" s="1">
-        <v>942.972000</v>
+        <v>942.97199999999998</v>
       </c>
       <c r="N18" s="1">
-        <v>-111.349000</v>
+        <v>-111.349</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>45041.157296</v>
+        <v>45041.157295999998</v>
       </c>
       <c r="Q18" s="1">
         <v>12.511433</v>
       </c>
       <c r="R18" s="1">
-        <v>949.967000</v>
+        <v>949.96699999999998</v>
       </c>
       <c r="S18" s="1">
-        <v>-98.315700</v>
+        <v>-98.315700000000007</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>45051.632271</v>
+        <v>45051.632271000002</v>
       </c>
       <c r="V18" s="1">
-        <v>12.514342</v>
+        <v>12.514341999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>956.959000</v>
+        <v>956.95899999999995</v>
       </c>
       <c r="X18" s="1">
-        <v>-86.933600</v>
+        <v>-86.933599999999998</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>45062.122689</v>
+        <v>45062.122689000003</v>
       </c>
       <c r="AA18" s="1">
         <v>12.517256</v>
       </c>
       <c r="AB18" s="1">
-        <v>965.403000</v>
+        <v>965.40300000000002</v>
       </c>
       <c r="AC18" s="1">
-        <v>-79.395700</v>
+        <v>-79.395700000000005</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>45072.591746</v>
+        <v>45072.591745999998</v>
       </c>
       <c r="AF18" s="1">
-        <v>12.520164</v>
+        <v>12.520163999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>970.816000</v>
+        <v>970.81600000000003</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.594900</v>
+        <v>-79.594899999999996</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>45083.538916</v>
+        <v>45083.538915999998</v>
       </c>
       <c r="AK18" s="1">
-        <v>12.523205</v>
+        <v>12.523205000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>979.252000</v>
+        <v>979.25199999999995</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.866200</v>
+        <v>-87.866200000000006</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>45094.426636</v>
+        <v>45094.426635999997</v>
       </c>
       <c r="AP18" s="1">
-        <v>12.526230</v>
+        <v>12.52623</v>
       </c>
       <c r="AQ18" s="1">
-        <v>988.714000</v>
+        <v>988.71400000000006</v>
       </c>
       <c r="AR18" s="1">
-        <v>-103.104000</v>
+        <v>-103.104</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>45105.471051</v>
       </c>
       <c r="AU18" s="1">
-        <v>12.529298</v>
+        <v>12.529298000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>1000.300000</v>
+        <v>1000.3</v>
       </c>
       <c r="AW18" s="1">
-        <v>-124.971000</v>
+        <v>-124.971</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>45116.856184</v>
+        <v>45116.856183999997</v>
       </c>
       <c r="AZ18" s="1">
-        <v>12.532460</v>
+        <v>12.53246</v>
       </c>
       <c r="BA18" s="1">
-        <v>1010.080000</v>
+        <v>1010.08</v>
       </c>
       <c r="BB18" s="1">
-        <v>-143.941000</v>
+        <v>-143.941</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>45127.795945</v>
+        <v>45127.795944999998</v>
       </c>
       <c r="BE18" s="1">
         <v>12.535499</v>
       </c>
       <c r="BF18" s="1">
-        <v>1055.550000</v>
+        <v>1055.55</v>
       </c>
       <c r="BG18" s="1">
-        <v>-229.603000</v>
+        <v>-229.60300000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>45138.820554</v>
+        <v>45138.820553999998</v>
       </c>
       <c r="BJ18" s="1">
         <v>12.538561</v>
       </c>
       <c r="BK18" s="1">
-        <v>1135.210000</v>
+        <v>1135.21</v>
       </c>
       <c r="BL18" s="1">
-        <v>-367.280000</v>
+        <v>-367.28</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>45150.079212</v>
+        <v>45150.079211999997</v>
       </c>
       <c r="BO18" s="1">
         <v>12.541689</v>
       </c>
       <c r="BP18" s="1">
-        <v>1267.000000</v>
+        <v>1267</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-580.843000</v>
+        <v>-580.84299999999996</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>45161.097869</v>
+        <v>45161.097868999997</v>
       </c>
       <c r="BT18" s="1">
-        <v>12.544749</v>
+        <v>12.544748999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1414.960000</v>
+        <v>1414.96</v>
       </c>
       <c r="BV18" s="1">
-        <v>-809.781000</v>
+        <v>-809.78099999999995</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>45171.910659</v>
+        <v>45171.910659000001</v>
       </c>
       <c r="BY18" s="1">
         <v>12.547753</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1578.600000</v>
+        <v>1578.6</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1049.170000</v>
+        <v>-1049.17</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>45184.331439</v>
+        <v>45184.331439000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>12.551203</v>
+        <v>12.551202999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>1992.790000</v>
+        <v>1992.79</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1610.640000</v>
+        <v>-1610.64</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>45010.102276</v>
+        <v>45010.102275999998</v>
       </c>
       <c r="B19" s="1">
         <v>12.502806</v>
       </c>
       <c r="C19" s="1">
-        <v>908.485000</v>
+        <v>908.48500000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-174.879000</v>
+        <v>-174.87899999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>45020.240473</v>
+        <v>45020.240472999998</v>
       </c>
       <c r="G19" s="1">
-        <v>12.505622</v>
+        <v>12.505622000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>922.285000</v>
+        <v>922.28499999999997</v>
       </c>
       <c r="I19" s="1">
-        <v>-150.246000</v>
+        <v>-150.24600000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>45030.741771</v>
+        <v>45030.741771000001</v>
       </c>
       <c r="L19" s="1">
-        <v>12.508539</v>
+        <v>12.508539000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>943.151000</v>
+        <v>943.15099999999995</v>
       </c>
       <c r="N19" s="1">
-        <v>-111.287000</v>
+        <v>-111.28700000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>45041.516376</v>
       </c>
       <c r="Q19" s="1">
-        <v>12.511532</v>
+        <v>12.511532000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>949.976000</v>
+        <v>949.976</v>
       </c>
       <c r="S19" s="1">
-        <v>-98.318200</v>
+        <v>-98.318200000000004</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>45051.976010</v>
+        <v>45051.976009999998</v>
       </c>
       <c r="V19" s="1">
         <v>12.514438</v>
       </c>
       <c r="W19" s="1">
-        <v>957.076000</v>
+        <v>957.07600000000002</v>
       </c>
       <c r="X19" s="1">
-        <v>-87.022900</v>
+        <v>-87.022900000000007</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>45062.546767</v>
@@ -4925,73 +5341,73 @@
         <v>12.517374</v>
       </c>
       <c r="AB19" s="1">
-        <v>965.345000</v>
+        <v>965.34500000000003</v>
       </c>
       <c r="AC19" s="1">
-        <v>-79.395400</v>
+        <v>-79.395399999999995</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>45073.019763</v>
+        <v>45073.019762999997</v>
       </c>
       <c r="AF19" s="1">
-        <v>12.520283</v>
+        <v>12.520282999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>970.852000</v>
+        <v>970.85199999999998</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.574000</v>
+        <v>-79.573999999999998</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>45083.810229</v>
+        <v>45083.810229000002</v>
       </c>
       <c r="AK19" s="1">
-        <v>12.523281</v>
+        <v>12.523281000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>979.240000</v>
+        <v>979.24</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.843000</v>
+        <v>-87.843000000000004</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>45094.710807</v>
+        <v>45094.710807000003</v>
       </c>
       <c r="AP19" s="1">
-        <v>12.526309</v>
+        <v>12.526308999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>988.688000</v>
+        <v>988.68799999999999</v>
       </c>
       <c r="AR19" s="1">
-        <v>-103.134000</v>
+        <v>-103.134</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>45105.835110</v>
+        <v>45105.83511</v>
       </c>
       <c r="AU19" s="1">
         <v>12.529399</v>
       </c>
       <c r="AV19" s="1">
-        <v>1000.280000</v>
+        <v>1000.28</v>
       </c>
       <c r="AW19" s="1">
-        <v>-124.947000</v>
+        <v>-124.947</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>45117.438488</v>
@@ -5000,120 +5416,120 @@
         <v>12.532622</v>
       </c>
       <c r="BA19" s="1">
-        <v>1010.020000</v>
+        <v>1010.02</v>
       </c>
       <c r="BB19" s="1">
-        <v>-143.903000</v>
+        <v>-143.90299999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>45128.524568</v>
+        <v>45128.524568000001</v>
       </c>
       <c r="BE19" s="1">
         <v>12.535701</v>
       </c>
       <c r="BF19" s="1">
-        <v>1055.530000</v>
+        <v>1055.53</v>
       </c>
       <c r="BG19" s="1">
-        <v>-229.602000</v>
+        <v>-229.602</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>45139.570506</v>
+        <v>45139.570505999996</v>
       </c>
       <c r="BJ19" s="1">
-        <v>12.538770</v>
+        <v>12.53877</v>
       </c>
       <c r="BK19" s="1">
-        <v>1135.180000</v>
+        <v>1135.18</v>
       </c>
       <c r="BL19" s="1">
-        <v>-367.276000</v>
+        <v>-367.27600000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>45150.459643</v>
+        <v>45150.459643000002</v>
       </c>
       <c r="BO19" s="1">
-        <v>12.541794</v>
+        <v>12.541793999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1266.970000</v>
+        <v>1266.97</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-580.824000</v>
+        <v>-580.82399999999996</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>45161.532334</v>
+        <v>45161.532334000003</v>
       </c>
       <c r="BT19" s="1">
-        <v>12.544870</v>
+        <v>12.54487</v>
       </c>
       <c r="BU19" s="1">
-        <v>1414.880000</v>
+        <v>1414.88</v>
       </c>
       <c r="BV19" s="1">
-        <v>-809.716000</v>
+        <v>-809.71600000000001</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>45172.334207</v>
       </c>
       <c r="BY19" s="1">
-        <v>12.547871</v>
+        <v>12.547871000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1578.630000</v>
+        <v>1578.63</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1049.190000</v>
+        <v>-1049.19</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>45185.170206</v>
+        <v>45185.170206000003</v>
       </c>
       <c r="CD19" s="1">
-        <v>12.551436</v>
+        <v>12.551436000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1994.130000</v>
+        <v>1994.13</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1609.920000</v>
+        <v>-1609.92</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>45010.498549</v>
+        <v>45010.498549000004</v>
       </c>
       <c r="B20" s="1">
-        <v>12.502916</v>
+        <v>12.502916000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>908.331000</v>
+        <v>908.33100000000002</v>
       </c>
       <c r="D20" s="1">
-        <v>-174.784000</v>
+        <v>-174.78399999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>45020.585218</v>
@@ -5122,512 +5538,512 @@
         <v>12.505718</v>
       </c>
       <c r="H20" s="1">
-        <v>921.979000</v>
+        <v>921.97900000000004</v>
       </c>
       <c r="I20" s="1">
-        <v>-150.139000</v>
+        <v>-150.13900000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>45031.086102</v>
+        <v>45031.086102000001</v>
       </c>
       <c r="L20" s="1">
         <v>12.508635</v>
       </c>
       <c r="M20" s="1">
-        <v>943.072000</v>
+        <v>943.072</v>
       </c>
       <c r="N20" s="1">
-        <v>-111.292000</v>
+        <v>-111.292</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>45041.867544</v>
+        <v>45041.867544000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>12.511630</v>
+        <v>12.51163</v>
       </c>
       <c r="R20" s="1">
-        <v>949.921000</v>
+        <v>949.92100000000005</v>
       </c>
       <c r="S20" s="1">
-        <v>-98.456900</v>
+        <v>-98.456900000000005</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>45052.398590</v>
+        <v>45052.398589999997</v>
       </c>
       <c r="V20" s="1">
         <v>12.514555</v>
       </c>
       <c r="W20" s="1">
-        <v>957.013000</v>
+        <v>957.01300000000003</v>
       </c>
       <c r="X20" s="1">
-        <v>-86.928200</v>
+        <v>-86.928200000000004</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>45062.819535</v>
+        <v>45062.819535000002</v>
       </c>
       <c r="AA20" s="1">
-        <v>12.517450</v>
+        <v>12.51745</v>
       </c>
       <c r="AB20" s="1">
-        <v>965.253000</v>
+        <v>965.25300000000004</v>
       </c>
       <c r="AC20" s="1">
-        <v>-79.369800</v>
+        <v>-79.369799999999998</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>45073.288631</v>
+        <v>45073.288631000003</v>
       </c>
       <c r="AF20" s="1">
         <v>12.520358</v>
       </c>
       <c r="AG20" s="1">
-        <v>970.836000</v>
+        <v>970.83600000000001</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.557700</v>
+        <v>-79.557699999999997</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>45084.161929</v>
+        <v>45084.161929000002</v>
       </c>
       <c r="AK20" s="1">
-        <v>12.523378</v>
+        <v>12.523377999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>979.241000</v>
+        <v>979.24099999999999</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.852600</v>
+        <v>-87.852599999999995</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>45095.069909</v>
+        <v>45095.069908999998</v>
       </c>
       <c r="AP20" s="1">
         <v>12.526408</v>
       </c>
       <c r="AQ20" s="1">
-        <v>988.725000</v>
+        <v>988.72500000000002</v>
       </c>
       <c r="AR20" s="1">
-        <v>-103.135000</v>
+        <v>-103.13500000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>45106.201622</v>
       </c>
       <c r="AU20" s="1">
-        <v>12.529500</v>
+        <v>12.529500000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1000.260000</v>
+        <v>1000.26</v>
       </c>
       <c r="AW20" s="1">
-        <v>-124.952000</v>
+        <v>-124.952</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>45118.221697</v>
+        <v>45118.221697000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>12.532839</v>
+        <v>12.532838999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1010.010000</v>
+        <v>1010.01</v>
       </c>
       <c r="BB20" s="1">
-        <v>-143.894000</v>
+        <v>-143.89400000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>45128.904008</v>
+        <v>45128.904007999998</v>
       </c>
       <c r="BE20" s="1">
         <v>12.535807</v>
       </c>
       <c r="BF20" s="1">
-        <v>1055.540000</v>
+        <v>1055.54</v>
       </c>
       <c r="BG20" s="1">
-        <v>-229.597000</v>
+        <v>-229.59700000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>45139.975209</v>
+        <v>45139.975208999997</v>
       </c>
       <c r="BJ20" s="1">
-        <v>12.538882</v>
+        <v>12.538881999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1135.180000</v>
+        <v>1135.18</v>
       </c>
       <c r="BL20" s="1">
-        <v>-367.243000</v>
+        <v>-367.24299999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>45150.880251</v>
+        <v>45150.880251000002</v>
       </c>
       <c r="BO20" s="1">
-        <v>12.541911</v>
+        <v>12.541911000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1266.970000</v>
+        <v>1266.97</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-580.804000</v>
+        <v>-580.80399999999997</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>45162.249547</v>
+        <v>45162.249546999999</v>
       </c>
       <c r="BT20" s="1">
         <v>12.545069</v>
       </c>
       <c r="BU20" s="1">
-        <v>1415.000000</v>
+        <v>1415</v>
       </c>
       <c r="BV20" s="1">
-        <v>-809.660000</v>
+        <v>-809.66</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>45173.090109</v>
+        <v>45173.090108999997</v>
       </c>
       <c r="BY20" s="1">
         <v>12.548081</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1578.740000</v>
+        <v>1578.74</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1049.090000</v>
+        <v>-1049.0899999999999</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>45185.409246</v>
+        <v>45185.409246000003</v>
       </c>
       <c r="CD20" s="1">
         <v>12.551503</v>
       </c>
       <c r="CE20" s="1">
-        <v>1993.270000</v>
+        <v>1993.27</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1608.400000</v>
+        <v>-1608.4</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>45010.843765</v>
+        <v>45010.843764999998</v>
       </c>
       <c r="B21" s="1">
         <v>12.503012</v>
       </c>
       <c r="C21" s="1">
-        <v>908.486000</v>
+        <v>908.48599999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-174.831000</v>
+        <v>-174.83099999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>45020.930902</v>
       </c>
       <c r="G21" s="1">
-        <v>12.505814</v>
+        <v>12.505814000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>922.422000</v>
+        <v>922.42200000000003</v>
       </c>
       <c r="I21" s="1">
-        <v>-150.539000</v>
+        <v>-150.53899999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>45031.517049</v>
+        <v>45031.517049000002</v>
       </c>
       <c r="L21" s="1">
-        <v>12.508755</v>
+        <v>12.508755000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>943.136000</v>
+        <v>943.13599999999997</v>
       </c>
       <c r="N21" s="1">
-        <v>-111.190000</v>
+        <v>-111.19</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>45042.295578</v>
+        <v>45042.295577999997</v>
       </c>
       <c r="Q21" s="1">
         <v>12.511749</v>
       </c>
       <c r="R21" s="1">
-        <v>949.902000</v>
+        <v>949.90200000000004</v>
       </c>
       <c r="S21" s="1">
-        <v>-98.369600</v>
+        <v>-98.369600000000005</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>45052.686270</v>
+        <v>45052.686269999998</v>
       </c>
       <c r="V21" s="1">
         <v>12.514635</v>
       </c>
       <c r="W21" s="1">
-        <v>957.050000</v>
+        <v>957.05</v>
       </c>
       <c r="X21" s="1">
-        <v>-87.076400</v>
+        <v>-87.076400000000007</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>45063.164287</v>
       </c>
       <c r="AA21" s="1">
-        <v>12.517546</v>
+        <v>12.517545999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>965.390000</v>
+        <v>965.39</v>
       </c>
       <c r="AC21" s="1">
-        <v>-79.296900</v>
+        <v>-79.296899999999994</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>45073.632176</v>
+        <v>45073.632175999999</v>
       </c>
       <c r="AF21" s="1">
         <v>12.520453</v>
       </c>
       <c r="AG21" s="1">
-        <v>970.814000</v>
+        <v>970.81399999999996</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.562700</v>
+        <v>-79.562700000000007</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>45084.509125</v>
+        <v>45084.509124999997</v>
       </c>
       <c r="AK21" s="1">
-        <v>12.523475</v>
+        <v>12.523474999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>979.241000</v>
+        <v>979.24099999999999</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.844100</v>
+        <v>-87.844099999999997</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>45095.795583</v>
+        <v>45095.795582999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>12.526610</v>
+        <v>12.52661</v>
       </c>
       <c r="AQ21" s="1">
-        <v>988.725000</v>
+        <v>988.72500000000002</v>
       </c>
       <c r="AR21" s="1">
-        <v>-103.101000</v>
+        <v>-103.101</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>45106.930244</v>
+        <v>45106.930244000003</v>
       </c>
       <c r="AU21" s="1">
         <v>12.529703</v>
       </c>
       <c r="AV21" s="1">
-        <v>1000.280000</v>
+        <v>1000.28</v>
       </c>
       <c r="AW21" s="1">
-        <v>-124.954000</v>
+        <v>-124.95399999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>45118.581767</v>
+        <v>45118.581767000003</v>
       </c>
       <c r="AZ21" s="1">
-        <v>12.532939</v>
+        <v>12.532939000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1010.010000</v>
+        <v>1010.01</v>
       </c>
       <c r="BB21" s="1">
-        <v>-143.895000</v>
+        <v>-143.89500000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>45129.295352</v>
+        <v>45129.295352000001</v>
       </c>
       <c r="BE21" s="1">
-        <v>12.535915</v>
+        <v>12.535914999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1055.550000</v>
+        <v>1055.55</v>
       </c>
       <c r="BG21" s="1">
-        <v>-229.589000</v>
+        <v>-229.589</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>45140.349690</v>
+        <v>45140.349690000003</v>
       </c>
       <c r="BJ21" s="1">
         <v>12.538986</v>
       </c>
       <c r="BK21" s="1">
-        <v>1135.190000</v>
+        <v>1135.19</v>
       </c>
       <c r="BL21" s="1">
-        <v>-367.275000</v>
+        <v>-367.27499999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>45151.593039</v>
+        <v>45151.593038999999</v>
       </c>
       <c r="BO21" s="1">
         <v>12.542109</v>
       </c>
       <c r="BP21" s="1">
-        <v>1266.960000</v>
+        <v>1266.96</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-580.837000</v>
+        <v>-580.83699999999999</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>45162.376029</v>
+        <v>45162.376028999999</v>
       </c>
       <c r="BT21" s="1">
         <v>12.545104</v>
       </c>
       <c r="BU21" s="1">
-        <v>1414.990000</v>
+        <v>1414.99</v>
       </c>
       <c r="BV21" s="1">
-        <v>-809.601000</v>
+        <v>-809.601</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>45173.214605</v>
+        <v>45173.214605000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>12.548115</v>
+        <v>12.548114999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1578.600000</v>
+        <v>1578.6</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1049.170000</v>
+        <v>-1049.17</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>45185.944925</v>
+        <v>45185.944925000003</v>
       </c>
       <c r="CD21" s="1">
         <v>12.551651</v>
       </c>
       <c r="CE21" s="1">
-        <v>1991.730000</v>
+        <v>1991.73</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1610.240000</v>
+        <v>-1610.24</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>45011.183028</v>
+        <v>45011.183027999999</v>
       </c>
       <c r="B22" s="1">
-        <v>12.503106</v>
+        <v>12.503106000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>908.340000</v>
+        <v>908.34</v>
       </c>
       <c r="D22" s="1">
-        <v>-174.825000</v>
+        <v>-174.82499999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>45021.351014</v>
@@ -5636,88 +6052,88 @@
         <v>12.505931</v>
       </c>
       <c r="H22" s="1">
-        <v>922.547000</v>
+        <v>922.54700000000003</v>
       </c>
       <c r="I22" s="1">
-        <v>-149.964000</v>
+        <v>-149.964</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>45031.777944</v>
+        <v>45031.777944000001</v>
       </c>
       <c r="L22" s="1">
         <v>12.508827</v>
       </c>
       <c r="M22" s="1">
-        <v>942.956000</v>
+        <v>942.95600000000002</v>
       </c>
       <c r="N22" s="1">
-        <v>-111.354000</v>
+        <v>-111.354</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>45042.575850</v>
+        <v>45042.575850000001</v>
       </c>
       <c r="Q22" s="1">
         <v>12.511827</v>
       </c>
       <c r="R22" s="1">
-        <v>949.905000</v>
+        <v>949.90499999999997</v>
       </c>
       <c r="S22" s="1">
-        <v>-98.345200</v>
+        <v>-98.345200000000006</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>45053.029537</v>
+        <v>45053.029537000002</v>
       </c>
       <c r="V22" s="1">
-        <v>12.514730</v>
+        <v>12.51473</v>
       </c>
       <c r="W22" s="1">
-        <v>957.151000</v>
+        <v>957.15099999999995</v>
       </c>
       <c r="X22" s="1">
-        <v>-87.065100</v>
+        <v>-87.065100000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>45063.515918</v>
+        <v>45063.515917999997</v>
       </c>
       <c r="AA22" s="1">
         <v>12.517643</v>
       </c>
       <c r="AB22" s="1">
-        <v>965.312000</v>
+        <v>965.31200000000001</v>
       </c>
       <c r="AC22" s="1">
-        <v>-79.347400</v>
+        <v>-79.347399999999993</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>45073.977042</v>
+        <v>45073.977041999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>12.520549</v>
+        <v>12.520549000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>970.811000</v>
+        <v>970.81100000000004</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.527000</v>
+        <v>-79.527000000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>45085.206994</v>
@@ -5726,285 +6142,285 @@
         <v>12.523669</v>
       </c>
       <c r="AL22" s="1">
-        <v>979.221000</v>
+        <v>979.221</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.827900</v>
+        <v>-87.8279</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>45096.154686</v>
+        <v>45096.154686000002</v>
       </c>
       <c r="AP22" s="1">
-        <v>12.526710</v>
+        <v>12.52671</v>
       </c>
       <c r="AQ22" s="1">
-        <v>988.706000</v>
+        <v>988.70600000000002</v>
       </c>
       <c r="AR22" s="1">
-        <v>-103.106000</v>
+        <v>-103.10599999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>45107.294340</v>
+        <v>45107.29434</v>
       </c>
       <c r="AU22" s="1">
         <v>12.529804</v>
       </c>
       <c r="AV22" s="1">
-        <v>1000.270000</v>
+        <v>1000.27</v>
       </c>
       <c r="AW22" s="1">
-        <v>-124.957000</v>
+        <v>-124.95699999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>45118.940871</v>
+        <v>45118.940870999999</v>
       </c>
       <c r="AZ22" s="1">
         <v>12.533039</v>
       </c>
       <c r="BA22" s="1">
-        <v>1010.010000</v>
+        <v>1010.01</v>
       </c>
       <c r="BB22" s="1">
-        <v>-143.876000</v>
+        <v>-143.876</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>45129.977141</v>
+        <v>45129.977141000003</v>
       </c>
       <c r="BE22" s="1">
-        <v>12.536105</v>
+        <v>12.536104999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1055.530000</v>
+        <v>1055.53</v>
       </c>
       <c r="BG22" s="1">
-        <v>-229.612000</v>
+        <v>-229.61199999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>45141.049545</v>
+        <v>45141.049545000002</v>
       </c>
       <c r="BJ22" s="1">
-        <v>12.539180</v>
+        <v>12.53918</v>
       </c>
       <c r="BK22" s="1">
-        <v>1135.210000</v>
+        <v>1135.21</v>
       </c>
       <c r="BL22" s="1">
-        <v>-367.304000</v>
+        <v>-367.30399999999997</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>45151.703609</v>
+        <v>45151.703608999997</v>
       </c>
       <c r="BO22" s="1">
-        <v>12.542140</v>
+        <v>12.54214</v>
       </c>
       <c r="BP22" s="1">
-        <v>1266.960000</v>
+        <v>1266.96</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-580.863000</v>
+        <v>-580.86300000000006</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>45162.815980</v>
+        <v>45162.815979999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>12.545227</v>
+        <v>12.545227000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1414.920000</v>
+        <v>1414.92</v>
       </c>
       <c r="BV22" s="1">
-        <v>-809.526000</v>
+        <v>-809.52599999999995</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>45173.651582</v>
+        <v>45173.651581999999</v>
       </c>
       <c r="BY22" s="1">
         <v>12.548237</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1578.700000</v>
+        <v>1578.7</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1049.060000</v>
+        <v>-1049.06</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>45186.485565</v>
+        <v>45186.485565000003</v>
       </c>
       <c r="CD22" s="1">
         <v>12.551802</v>
       </c>
       <c r="CE22" s="1">
-        <v>1993.870000</v>
+        <v>1993.87</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1608.940000</v>
+        <v>-1608.94</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>45011.606115</v>
+        <v>45011.606115000002</v>
       </c>
       <c r="B23" s="1">
-        <v>12.503224</v>
+        <v>12.503223999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>908.294000</v>
+        <v>908.29399999999998</v>
       </c>
       <c r="D23" s="1">
-        <v>-174.923000</v>
+        <v>-174.923</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>45021.626790</v>
+        <v>45021.626790000002</v>
       </c>
       <c r="G23" s="1">
         <v>12.506007</v>
       </c>
       <c r="H23" s="1">
-        <v>922.233000</v>
+        <v>922.23299999999995</v>
       </c>
       <c r="I23" s="1">
-        <v>-150.354000</v>
+        <v>-150.35400000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>45032.123161</v>
+        <v>45032.123161000003</v>
       </c>
       <c r="L23" s="1">
-        <v>12.508923</v>
+        <v>12.508922999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>943.100000</v>
+        <v>943.1</v>
       </c>
       <c r="N23" s="1">
-        <v>-111.253000</v>
+        <v>-111.253</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>45042.924507</v>
+        <v>45042.924507000003</v>
       </c>
       <c r="Q23" s="1">
-        <v>12.511923</v>
+        <v>12.511922999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>949.907000</v>
+        <v>949.90700000000004</v>
       </c>
       <c r="S23" s="1">
-        <v>-98.342700</v>
+        <v>-98.342699999999994</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>45053.375212</v>
+        <v>45053.375211999999</v>
       </c>
       <c r="V23" s="1">
-        <v>12.514826</v>
+        <v>12.514825999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>957.132000</v>
+        <v>957.13199999999995</v>
       </c>
       <c r="X23" s="1">
-        <v>-87.044600</v>
+        <v>-87.044600000000003</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>45064.211346</v>
+        <v>45064.211345999996</v>
       </c>
       <c r="AA23" s="1">
-        <v>12.517836</v>
+        <v>12.517836000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>965.302000</v>
+        <v>965.30200000000002</v>
       </c>
       <c r="AC23" s="1">
-        <v>-79.318100</v>
+        <v>-79.318100000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>45074.664497</v>
+        <v>45074.664496999998</v>
       </c>
       <c r="AF23" s="1">
-        <v>12.520740</v>
+        <v>12.52074</v>
       </c>
       <c r="AG23" s="1">
-        <v>970.823000</v>
+        <v>970.82299999999998</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.545600</v>
+        <v>-79.545599999999993</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>45085.556145</v>
+        <v>45085.556145000002</v>
       </c>
       <c r="AK23" s="1">
         <v>12.523766</v>
       </c>
       <c r="AL23" s="1">
-        <v>979.234000</v>
+        <v>979.23400000000004</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.838000</v>
+        <v>-87.837999999999994</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>45096.515251</v>
+        <v>45096.515250999997</v>
       </c>
       <c r="AP23" s="1">
-        <v>12.526810</v>
+        <v>12.526809999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>988.723000</v>
+        <v>988.72299999999996</v>
       </c>
       <c r="AR23" s="1">
-        <v>-103.118000</v>
+        <v>-103.11799999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>45107.660892</v>
@@ -6013,28 +6429,28 @@
         <v>12.529906</v>
       </c>
       <c r="AV23" s="1">
-        <v>1000.280000</v>
+        <v>1000.28</v>
       </c>
       <c r="AW23" s="1">
-        <v>-124.950000</v>
+        <v>-124.95</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>45119.608484</v>
+        <v>45119.608483999997</v>
       </c>
       <c r="AZ23" s="1">
         <v>12.533225</v>
       </c>
       <c r="BA23" s="1">
-        <v>1010.010000</v>
+        <v>1010.01</v>
       </c>
       <c r="BB23" s="1">
-        <v>-143.922000</v>
+        <v>-143.922</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>45130.399973</v>
@@ -6043,255 +6459,255 @@
         <v>12.536222</v>
       </c>
       <c r="BF23" s="1">
-        <v>1055.530000</v>
+        <v>1055.53</v>
       </c>
       <c r="BG23" s="1">
-        <v>-229.589000</v>
+        <v>-229.589</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>45141.505865</v>
+        <v>45141.505864999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>12.539307</v>
+        <v>12.539307000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1135.190000</v>
+        <v>1135.19</v>
       </c>
       <c r="BL23" s="1">
-        <v>-367.313000</v>
+        <v>-367.31299999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>45152.125211</v>
+        <v>45152.125210999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>12.542257</v>
+        <v>12.542256999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1266.970000</v>
+        <v>1266.97</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-580.846000</v>
+        <v>-580.846</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>45163.241546</v>
+        <v>45163.241545999997</v>
       </c>
       <c r="BT23" s="1">
-        <v>12.545345</v>
+        <v>12.545344999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1415.050000</v>
+        <v>1415.05</v>
       </c>
       <c r="BV23" s="1">
-        <v>-809.502000</v>
+        <v>-809.50199999999995</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>45174.075164</v>
+        <v>45174.075164000002</v>
       </c>
       <c r="BY23" s="1">
         <v>12.548354</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1578.800000</v>
+        <v>1578.8</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1049.150000</v>
+        <v>-1049.1500000000001</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>45187.023755</v>
+        <v>45187.023755000002</v>
       </c>
       <c r="CD23" s="1">
-        <v>12.551951</v>
+        <v>12.551951000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>1992.270000</v>
+        <v>1992.27</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1609.030000</v>
+        <v>-1609.03</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>45011.882420</v>
+        <v>45011.882420000002</v>
       </c>
       <c r="B24" s="1">
         <v>12.503301</v>
       </c>
       <c r="C24" s="1">
-        <v>908.382000</v>
+        <v>908.38199999999995</v>
       </c>
       <c r="D24" s="1">
-        <v>-175.039000</v>
+        <v>-175.03899999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>45021.972501</v>
+        <v>45021.972500999997</v>
       </c>
       <c r="G24" s="1">
         <v>12.506103</v>
       </c>
       <c r="H24" s="1">
-        <v>922.390000</v>
+        <v>922.39</v>
       </c>
       <c r="I24" s="1">
-        <v>-149.571000</v>
+        <v>-149.571</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>45032.470362</v>
       </c>
       <c r="L24" s="1">
-        <v>12.509020</v>
+        <v>12.50902</v>
       </c>
       <c r="M24" s="1">
-        <v>943.144000</v>
+        <v>943.14400000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-111.237000</v>
+        <v>-111.23699999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>45043.272697</v>
       </c>
       <c r="Q24" s="1">
-        <v>12.512020</v>
+        <v>12.51202</v>
       </c>
       <c r="R24" s="1">
-        <v>949.932000</v>
+        <v>949.93200000000002</v>
       </c>
       <c r="S24" s="1">
-        <v>-98.484100</v>
+        <v>-98.484099999999998</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>45054.059690</v>
+        <v>45054.059690000002</v>
       </c>
       <c r="V24" s="1">
         <v>12.515017</v>
       </c>
       <c r="W24" s="1">
-        <v>957.142000</v>
+        <v>957.14200000000005</v>
       </c>
       <c r="X24" s="1">
-        <v>-87.091300</v>
+        <v>-87.091300000000004</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>45064.560494</v>
+        <v>45064.560493999998</v>
       </c>
       <c r="AA24" s="1">
-        <v>12.517933</v>
+        <v>12.517932999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>965.403000</v>
+        <v>965.40300000000002</v>
       </c>
       <c r="AC24" s="1">
-        <v>-79.326100</v>
+        <v>-79.326099999999997</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>45075.006735</v>
+        <v>45075.006735000003</v>
       </c>
       <c r="AF24" s="1">
         <v>12.520835</v>
       </c>
       <c r="AG24" s="1">
-        <v>970.826000</v>
+        <v>970.82600000000002</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.576900</v>
+        <v>-79.576899999999995</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>45085.904834</v>
+        <v>45085.904834000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>12.523862</v>
+        <v>12.523861999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>979.234000</v>
+        <v>979.23400000000004</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.851400</v>
+        <v>-87.851399999999998</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>45097.188818</v>
+        <v>45097.188818000002</v>
       </c>
       <c r="AP24" s="1">
         <v>12.526997</v>
       </c>
       <c r="AQ24" s="1">
-        <v>988.725000</v>
+        <v>988.72500000000002</v>
       </c>
       <c r="AR24" s="1">
-        <v>-103.107000</v>
+        <v>-103.107</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>45108.335908</v>
+        <v>45108.335908000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>12.530093</v>
+        <v>12.530093000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1000.270000</v>
+        <v>1000.27</v>
       </c>
       <c r="AW24" s="1">
-        <v>-124.951000</v>
+        <v>-124.95099999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>45120.044688</v>
+        <v>45120.044688000002</v>
       </c>
       <c r="AZ24" s="1">
         <v>12.533346</v>
       </c>
       <c r="BA24" s="1">
-        <v>1010.020000</v>
+        <v>1010.02</v>
       </c>
       <c r="BB24" s="1">
-        <v>-143.906000</v>
+        <v>-143.90600000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>45130.765989</v>
@@ -6300,255 +6716,255 @@
         <v>12.536324</v>
       </c>
       <c r="BF24" s="1">
-        <v>1055.550000</v>
+        <v>1055.55</v>
       </c>
       <c r="BG24" s="1">
-        <v>-229.590000</v>
+        <v>-229.59</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>45141.895255</v>
+        <v>45141.895255000003</v>
       </c>
       <c r="BJ24" s="1">
         <v>12.539415</v>
       </c>
       <c r="BK24" s="1">
-        <v>1135.210000</v>
+        <v>1135.21</v>
       </c>
       <c r="BL24" s="1">
-        <v>-367.278000</v>
+        <v>-367.27800000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>45152.522010</v>
+        <v>45152.522010000001</v>
       </c>
       <c r="BO24" s="1">
         <v>12.542367</v>
       </c>
       <c r="BP24" s="1">
-        <v>1266.960000</v>
+        <v>1266.96</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-580.837000</v>
+        <v>-580.83699999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>45163.667157</v>
+        <v>45163.667157000003</v>
       </c>
       <c r="BT24" s="1">
         <v>12.545463</v>
       </c>
       <c r="BU24" s="1">
-        <v>1415.090000</v>
+        <v>1415.09</v>
       </c>
       <c r="BV24" s="1">
-        <v>-809.446000</v>
+        <v>-809.44600000000003</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>45174.494812</v>
+        <v>45174.494811999997</v>
       </c>
       <c r="BY24" s="1">
-        <v>12.548471</v>
+        <v>12.548470999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1578.540000</v>
+        <v>1578.54</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1049.040000</v>
+        <v>-1049.04</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>45187.565850</v>
+        <v>45187.565849999999</v>
       </c>
       <c r="CD24" s="1">
         <v>12.552102</v>
       </c>
       <c r="CE24" s="1">
-        <v>1993.320000</v>
+        <v>1993.32</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1610.390000</v>
+        <v>-1610.39</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>45012.226610</v>
+        <v>45012.226609999998</v>
       </c>
       <c r="B25" s="1">
         <v>12.503396</v>
       </c>
       <c r="C25" s="1">
-        <v>908.322000</v>
+        <v>908.322</v>
       </c>
       <c r="D25" s="1">
-        <v>-174.849000</v>
+        <v>-174.84899999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>45022.315760</v>
+        <v>45022.315759999998</v>
       </c>
       <c r="G25" s="1">
-        <v>12.506199</v>
+        <v>12.506199000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>922.449000</v>
+        <v>922.44899999999996</v>
       </c>
       <c r="I25" s="1">
-        <v>-149.952000</v>
+        <v>-149.952</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>45033.164230</v>
+        <v>45033.164230000002</v>
       </c>
       <c r="L25" s="1">
         <v>12.509212</v>
       </c>
       <c r="M25" s="1">
-        <v>943.127000</v>
+        <v>943.12699999999995</v>
       </c>
       <c r="N25" s="1">
-        <v>-111.311000</v>
+        <v>-111.31100000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>45043.968431</v>
+        <v>45043.968431000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>12.512213</v>
+        <v>12.512212999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>949.948000</v>
+        <v>949.94799999999998</v>
       </c>
       <c r="S25" s="1">
-        <v>-98.438100</v>
+        <v>-98.438100000000006</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>45054.406394</v>
+        <v>45054.406393999998</v>
       </c>
       <c r="V25" s="1">
-        <v>12.515113</v>
+        <v>12.515112999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>957.061000</v>
+        <v>957.06100000000004</v>
       </c>
       <c r="X25" s="1">
-        <v>-86.959300</v>
+        <v>-86.959299999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>45064.909712</v>
+        <v>45064.909712000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>12.518030</v>
+        <v>12.51803</v>
       </c>
       <c r="AB25" s="1">
-        <v>965.375000</v>
+        <v>965.375</v>
       </c>
       <c r="AC25" s="1">
-        <v>-79.403000</v>
+        <v>-79.403000000000006</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>45075.353969</v>
+        <v>45075.353969000003</v>
       </c>
       <c r="AF25" s="1">
         <v>12.520932</v>
       </c>
       <c r="AG25" s="1">
-        <v>970.833000</v>
+        <v>970.83299999999997</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.557900</v>
+        <v>-79.557900000000004</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>45086.569969</v>
+        <v>45086.569968999996</v>
       </c>
       <c r="AK25" s="1">
-        <v>12.524047</v>
+        <v>12.524046999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>979.235000</v>
+        <v>979.23500000000001</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.847100</v>
+        <v>-87.847099999999998</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>45097.614385</v>
+        <v>45097.614385000001</v>
       </c>
       <c r="AP25" s="1">
         <v>12.527115</v>
       </c>
       <c r="AQ25" s="1">
-        <v>988.724000</v>
+        <v>988.72400000000005</v>
       </c>
       <c r="AR25" s="1">
-        <v>-103.128000</v>
+        <v>-103.128</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>45108.751092</v>
+        <v>45108.751091999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>12.530209</v>
+        <v>12.530208999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1000.280000</v>
+        <v>1000.28</v>
       </c>
       <c r="AW25" s="1">
-        <v>-124.961000</v>
+        <v>-124.961</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>45120.400131</v>
+        <v>45120.400131000002</v>
       </c>
       <c r="AZ25" s="1">
-        <v>12.533444</v>
+        <v>12.533443999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1010.010000</v>
+        <v>1010.01</v>
       </c>
       <c r="BB25" s="1">
-        <v>-143.927000</v>
+        <v>-143.92699999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>45131.128096</v>
@@ -6557,347 +6973,348 @@
         <v>12.536424</v>
       </c>
       <c r="BF25" s="1">
-        <v>1055.540000</v>
+        <v>1055.54</v>
       </c>
       <c r="BG25" s="1">
-        <v>-229.589000</v>
+        <v>-229.589</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>45142.267751</v>
+        <v>45142.267750999999</v>
       </c>
       <c r="BJ25" s="1">
         <v>12.539519</v>
       </c>
       <c r="BK25" s="1">
-        <v>1135.160000</v>
+        <v>1135.1600000000001</v>
       </c>
       <c r="BL25" s="1">
-        <v>-367.283000</v>
+        <v>-367.28300000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>45152.949072</v>
+        <v>45152.949072000003</v>
       </c>
       <c r="BO25" s="1">
         <v>12.542486</v>
       </c>
       <c r="BP25" s="1">
-        <v>1266.950000</v>
+        <v>1266.95</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-580.861000</v>
+        <v>-580.86099999999999</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>45164.085738</v>
+        <v>45164.085738000002</v>
       </c>
       <c r="BT25" s="1">
         <v>12.545579</v>
       </c>
       <c r="BU25" s="1">
-        <v>1415.210000</v>
+        <v>1415.21</v>
       </c>
       <c r="BV25" s="1">
-        <v>-809.412000</v>
+        <v>-809.41200000000003</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>45174.923187</v>
       </c>
       <c r="BY25" s="1">
-        <v>12.548590</v>
+        <v>12.548590000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1578.650000</v>
+        <v>1578.65</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1049.050000</v>
+        <v>-1049.05</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>45188.103049</v>
+        <v>45188.103048999998</v>
       </c>
       <c r="CD25" s="1">
         <v>12.552251</v>
       </c>
       <c r="CE25" s="1">
-        <v>1993.520000</v>
+        <v>1993.52</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1608.430000</v>
+        <v>-1608.43</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>45012.802993</v>
+        <v>45012.802992999998</v>
       </c>
       <c r="B26" s="1">
         <v>12.503556</v>
       </c>
       <c r="C26" s="1">
-        <v>908.416000</v>
+        <v>908.41600000000005</v>
       </c>
       <c r="D26" s="1">
-        <v>-174.998000</v>
+        <v>-174.99799999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>45023.005173</v>
+        <v>45023.005172999998</v>
       </c>
       <c r="G26" s="1">
-        <v>12.506390</v>
+        <v>12.50639</v>
       </c>
       <c r="H26" s="1">
-        <v>922.258000</v>
+        <v>922.25800000000004</v>
       </c>
       <c r="I26" s="1">
-        <v>-150.667000</v>
+        <v>-150.667</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>45033.508950</v>
+        <v>45033.508950000003</v>
       </c>
       <c r="L26" s="1">
-        <v>12.509308</v>
+        <v>12.509308000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>943.105000</v>
+        <v>943.10500000000002</v>
       </c>
       <c r="N26" s="1">
-        <v>-111.350000</v>
+        <v>-111.35</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>45044.322232</v>
+        <v>45044.322231999999</v>
       </c>
       <c r="Q26" s="1">
         <v>12.512312</v>
       </c>
       <c r="R26" s="1">
-        <v>949.907000</v>
+        <v>949.90700000000004</v>
       </c>
       <c r="S26" s="1">
-        <v>-98.474900</v>
+        <v>-98.474900000000005</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>45054.750627</v>
+        <v>45054.750627000001</v>
       </c>
       <c r="V26" s="1">
         <v>12.515209</v>
       </c>
       <c r="W26" s="1">
-        <v>957.173000</v>
+        <v>957.173</v>
       </c>
       <c r="X26" s="1">
-        <v>-87.085000</v>
+        <v>-87.084999999999994</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>45065.571341</v>
+        <v>45065.571341000003</v>
       </c>
       <c r="AA26" s="1">
         <v>12.518214</v>
       </c>
       <c r="AB26" s="1">
-        <v>965.364000</v>
+        <v>965.36400000000003</v>
       </c>
       <c r="AC26" s="1">
-        <v>-79.384000</v>
+        <v>-79.384</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>45076.012162</v>
+        <v>45076.012161999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>12.521114</v>
+        <v>12.521114000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>970.819000</v>
+        <v>970.81899999999996</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.597300</v>
+        <v>-79.597300000000004</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>45086.949409</v>
+        <v>45086.949409000001</v>
       </c>
       <c r="AK26" s="1">
         <v>12.524153</v>
       </c>
       <c r="AL26" s="1">
-        <v>979.251000</v>
+        <v>979.25099999999998</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.834400</v>
+        <v>-87.834400000000002</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>45098.003248</v>
+        <v>45098.003248000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>12.527223</v>
+        <v>12.527222999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>988.715000</v>
+        <v>988.71500000000003</v>
       </c>
       <c r="AR26" s="1">
-        <v>-103.128000</v>
+        <v>-103.128</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>45109.117635</v>
+        <v>45109.117635000002</v>
       </c>
       <c r="AU26" s="1">
-        <v>12.530310</v>
+        <v>12.53031</v>
       </c>
       <c r="AV26" s="1">
-        <v>1000.290000</v>
+        <v>1000.29</v>
       </c>
       <c r="AW26" s="1">
-        <v>-124.957000</v>
+        <v>-124.95699999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>45120.762180</v>
+        <v>45120.762179999998</v>
       </c>
       <c r="AZ26" s="1">
         <v>12.533545</v>
       </c>
       <c r="BA26" s="1">
-        <v>1010.010000</v>
+        <v>1010.01</v>
       </c>
       <c r="BB26" s="1">
-        <v>-143.905000</v>
+        <v>-143.905</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>45131.552644</v>
+        <v>45131.552644000003</v>
       </c>
       <c r="BE26" s="1">
-        <v>12.536542</v>
+        <v>12.536542000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1055.530000</v>
+        <v>1055.53</v>
       </c>
       <c r="BG26" s="1">
-        <v>-229.572000</v>
+        <v>-229.572</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>45142.694278</v>
+        <v>45142.694278000003</v>
       </c>
       <c r="BJ26" s="1">
-        <v>12.539637</v>
+        <v>12.539637000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1135.180000</v>
+        <v>1135.18</v>
       </c>
       <c r="BL26" s="1">
-        <v>-367.283000</v>
+        <v>-367.28300000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>45153.340443</v>
+        <v>45153.340443000001</v>
       </c>
       <c r="BO26" s="1">
         <v>12.542595</v>
       </c>
       <c r="BP26" s="1">
-        <v>1266.950000</v>
+        <v>1266.95</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-580.803000</v>
+        <v>-580.803</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>45164.516299</v>
+        <v>45164.516299000003</v>
       </c>
       <c r="BT26" s="1">
-        <v>12.545699</v>
+        <v>12.545699000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1415.180000</v>
+        <v>1415.18</v>
       </c>
       <c r="BV26" s="1">
-        <v>-809.357000</v>
+        <v>-809.35699999999997</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>45175.339964</v>
+        <v>45175.339963999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>12.548706</v>
+        <v>12.548705999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1578.710000</v>
+        <v>1578.71</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1049.120000</v>
+        <v>-1049.1199999999999</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>45188.646169</v>
       </c>
       <c r="CD26" s="1">
-        <v>12.552402</v>
+        <v>12.552402000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1991.840000</v>
+        <v>1991.84</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1610.280000</v>
+        <v>-1610.28</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>